--- a/NorthernTrust/NT-KostenBepaling.xlsx
+++ b/NorthernTrust/NT-KostenBepaling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/NorthernTrust/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1218" documentId="13_ncr:1_{0BEEB54A-A1B5-4808-9253-8C962E6DCC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83DDD94E-49D9-47F1-9CFE-EC7F1C33A09D}"/>
+  <xr:revisionPtr revIDLastSave="1590" documentId="13_ncr:1_{0BEEB54A-A1B5-4808-9253-8C962E6DCC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6D03689-7EA6-4571-B98D-16C4AC93BB2D}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aannames" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Tracking Difference" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -120,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{BD1C1B9C-3BAD-45A2-992F-6823089C5EEE}">
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{BD1C1B9C-3BAD-45A2-992F-6823089C5EEE}">
       <text>
         <r>
           <rPr>
@@ -134,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="1" shapeId="0" xr:uid="{0C1CBCCD-258E-4F5F-BE9F-D83596E2AAA6}">
+    <comment ref="B25" authorId="1" shapeId="0" xr:uid="{0C1CBCCD-258E-4F5F-BE9F-D83596E2AAA6}">
       <text>
         <r>
           <rPr>
@@ -168,7 +169,31 @@
     <author>Gerben</author>
   </authors>
   <commentList>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{525B02DB-CF23-48B2-9EF4-9B279845D0C8}">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{695149D2-4BCB-4332-A25D-3EB39C494959}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gerben:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Uit statement of comprehensive income</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{525B02DB-CF23-48B2-9EF4-9B279845D0C8}">
       <text>
         <r>
           <rPr>
@@ -199,10 +224,35 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Gerben</author>
     <author>Gerben van Loon</author>
   </authors>
   <commentList>
-    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{19166E4E-184D-453D-824D-6D7894A37242}">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{B85BAFEB-99CA-4F68-AE08-329C0E61EF33}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gerben:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Uit statement of comprehensive income</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="1" shapeId="0" xr:uid="{19166E4E-184D-453D-824D-6D7894A37242}">
       <text>
         <r>
           <rPr>
@@ -371,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{491C301F-C58A-4556-8DFB-A3897F0CAD8E}">
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{491C301F-C58A-4556-8DFB-A3897F0CAD8E}">
       <text>
         <r>
           <rPr>
@@ -397,7 +447,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="B44" authorId="0" shapeId="0" xr:uid="{44AC9BF2-D406-4BD8-8416-B5B9C5DDFA7D}">
+    <comment ref="B28" authorId="1" shapeId="0" xr:uid="{BE0847D9-7399-44F8-B6C6-CDD8B96BAFFC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>From "Sub-Fund Review" or "The returns posted by the Sub-Funds and their respective benchmarks for the year were as follows"
+of the annual report</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{44AC9BF2-D406-4BD8-8416-B5B9C5DDFA7D}">
       <text>
         <r>
           <rPr>
@@ -421,12 +485,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="B41" authorId="1" shapeId="0" xr:uid="{0E9D89F7-FAEA-4CEA-A5DE-38E66B3834A6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>From "Sub-Fund Review" or "The returns posted by the Sub-Funds and their respective benchmarks for the year were as follows"
+of the annual report</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="134">
   <si>
     <t>Transaction costs and interest expenses are excluded from the calculation.</t>
   </si>
@@ -742,21 +820,12 @@
     <t>Master: Northern Trust World Small Cap ESG Low Carbon Index FGR Fund Class F</t>
   </si>
   <si>
-    <t>TD ruimte</t>
-  </si>
-  <si>
     <t>Op de 2017 factsheet adverteerde men wel met een 0.15% TER, maar factsheet TER blijft indicatie, jaarverslag is de accounting waarheid</t>
   </si>
   <si>
     <t>De master fondsen lekken gewoon, de Nederlandse feeders maken dat goed. Dit zijn fiscaal transparante fondsen dus. (CCF)</t>
   </si>
   <si>
-    <t>gek, een gat?</t>
-  </si>
-  <si>
-    <t>Fund return</t>
-  </si>
-  <si>
     <t>TER</t>
   </si>
   <si>
@@ -775,42 +844,15 @@
     <t>Total costs</t>
   </si>
   <si>
-    <t>Northern Trust World Custom ESG Equity Index UCITS FGR Feeder Fund A</t>
-  </si>
-  <si>
-    <t>Northern Trust World Custom ESG Equity Index UCITS FGR Feeder Fund I</t>
-  </si>
-  <si>
     <t>Costs</t>
   </si>
   <si>
-    <t>A class</t>
-  </si>
-  <si>
-    <t>gek, een gat, wel beperkter</t>
-  </si>
-  <si>
-    <t>Cost range: 0,288% - 0,334%</t>
-  </si>
-  <si>
-    <t>Cost range: 0,328% - 0,420%</t>
-  </si>
-  <si>
-    <t>Bruto index return</t>
-  </si>
-  <si>
-    <t>Bruto tracking diff</t>
-  </si>
-  <si>
     <t>Gap</t>
   </si>
   <si>
     <t>Northern Trust World Custom ESG Equity Index UCITS FGR Feeder Fund</t>
   </si>
   <si>
-    <t>Kosten</t>
-  </si>
-  <si>
     <t>Gemiddelde TER</t>
   </si>
   <si>
@@ -823,25 +865,49 @@
     <t>Costs (I class)</t>
   </si>
   <si>
-    <t>Estimated TD</t>
-  </si>
-  <si>
     <t>TD gap</t>
   </si>
   <si>
     <t>TD gap minus assumed dividend leak</t>
   </si>
   <si>
-    <t>Costs master fund</t>
-  </si>
-  <si>
-    <t>TD gap minus assumed dividend leak and master fund costs</t>
-  </si>
-  <si>
-    <t>Cost range: 0,164% - 0,174%</t>
-  </si>
-  <si>
     <t>TER + transaction</t>
+  </si>
+  <si>
+    <t>% Totale kosten</t>
+  </si>
+  <si>
+    <t>Estimated TD Fund</t>
+  </si>
+  <si>
+    <t>TER Class A</t>
+  </si>
+  <si>
+    <t>TER Class G (ABN)</t>
+  </si>
+  <si>
+    <t>TER Class I (ABN)</t>
+  </si>
+  <si>
+    <t>Northern Trust World Custom ESG Equity Index UCITS FGR Feeder Fund - Class A</t>
+  </si>
+  <si>
+    <t>Northern Trust World Custom ESG Equity Index UCITS FGR Feeder Fund - Class I</t>
+  </si>
+  <si>
+    <t>Northern Trust Emerging Markets Custom ESG Equity Index UCITS FGR Fund - Class A</t>
+  </si>
+  <si>
+    <t>NORTHERN TRUST WORLD SMALL CAP ESG LOW CARBON INDEX FGR FUND - Class A</t>
+  </si>
+  <si>
+    <t>Eh, outperformance van de bruto index?</t>
+  </si>
+  <si>
+    <t>2020-2023</t>
+  </si>
+  <si>
+    <t>Cost range: 0,134% - 0,174%</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1506,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O49"/>
+  <dimension ref="B2:O50"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
@@ -1548,7 +1614,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="2"/>
       <c r="O5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -1727,7 +1793,7 @@
     </row>
     <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1761,34 +1827,35 @@
         <v>65</v>
       </c>
       <c r="C13" s="15">
+        <f>C15-C5</f>
         <v>159521</v>
       </c>
       <c r="D13" s="15">
-        <f>323257-D5</f>
+        <f t="shared" ref="D13:J13" si="2">D15-D5</f>
         <v>323257</v>
       </c>
       <c r="E13" s="15">
-        <f>2280765-E5</f>
+        <f t="shared" si="2"/>
         <v>2280765</v>
       </c>
       <c r="F13" s="15">
-        <f>3265001-F5</f>
+        <f t="shared" si="2"/>
         <v>3242707</v>
       </c>
       <c r="G13" s="15">
-        <f>3763438-G5</f>
+        <f t="shared" si="2"/>
         <v>2706261</v>
       </c>
       <c r="H13" s="15">
-        <f>4740622-H5</f>
+        <f t="shared" si="2"/>
         <v>4214146</v>
       </c>
       <c r="I13" s="15">
-        <f>4765035-I5</f>
+        <f t="shared" si="2"/>
         <v>3930027</v>
       </c>
       <c r="J13" s="15">
-        <f>2371401-J5</f>
+        <f t="shared" si="2"/>
         <v>1789839</v>
       </c>
       <c r="K13" s="4"/>
@@ -1797,38 +1864,38 @@
     </row>
     <row r="14" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C14" s="3">
         <f>C13/C6</f>
         <v>2.6266407285764366E-4</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14:J14" si="2">D13/D6</f>
+        <f t="shared" ref="D14:J14" si="3">D13/D6</f>
         <v>2.8077493451108816E-4</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2805674672750266E-3</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.212749278510918E-3</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0026764117315734E-3</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.0215565910225376E-4</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.4507329667729597E-4</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.1286569609465979E-4</v>
       </c>
       <c r="K14" s="4"/>
@@ -1837,38 +1904,30 @@
     </row>
     <row r="15" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C15" s="15">
-        <f>C13+C5</f>
         <v>159521</v>
       </c>
       <c r="D15" s="15">
-        <f>D13+D5</f>
         <v>323257</v>
       </c>
       <c r="E15" s="15">
-        <f t="shared" ref="E15:J15" si="3">E13+E5</f>
         <v>2280765</v>
       </c>
       <c r="F15" s="15">
-        <f t="shared" si="3"/>
         <v>3265001</v>
       </c>
       <c r="G15" s="15">
-        <f t="shared" si="3"/>
         <v>3763438</v>
       </c>
       <c r="H15" s="15">
-        <f t="shared" si="3"/>
         <v>4740622</v>
       </c>
       <c r="I15" s="15">
-        <f t="shared" si="3"/>
         <v>4765035</v>
       </c>
       <c r="J15" s="15">
-        <f t="shared" si="3"/>
         <v>2371401</v>
       </c>
       <c r="K15" s="4"/>
@@ -1877,7 +1936,7 @@
     </row>
     <row r="16" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C16" s="3">
         <f>C15/C6</f>
@@ -1931,158 +1990,167 @@
       <c r="L17" s="4"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1.5E-3</v>
+      </c>
       <c r="K18" s="3"/>
       <c r="L18" s="4"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C22" s="24">
         <f>0.07</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D22" s="24">
         <f>0.01</f>
         <v>0.01</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E22" s="24">
         <f>0.09</f>
         <v>0.09</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F22" s="24">
         <f>0.26</f>
         <v>0.26</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G22" s="24">
         <v>0.19</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H22" s="24">
         <v>0.08</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I22" s="24">
         <v>0.02</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J22" s="24">
         <v>0.01</v>
       </c>
-      <c r="K19" s="24"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="37">
-        <f>AVERAGE(E19:J19)</f>
+      <c r="K22" s="24"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="37">
+        <f>AVERAGE(E22:J22)</f>
         <v>0.10833333333333334</v>
       </c>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C23" s="24">
         <v>0.1464</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D23" s="24">
         <v>5.3100000000000001E-2</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E23" s="24">
         <v>0.1013</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F23" s="24">
         <v>9.2600000000000002E-2</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G23" s="24">
         <v>3.32E-2</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H23" s="24">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I23" s="24">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J23" s="24">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K20" s="24"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="37">
-        <f>AVERAGE(E20:J20)</f>
+      <c r="K23" s="24"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="37">
+        <f>AVERAGE(E23:J23)</f>
         <v>6.7549999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="4"/>
-      <c r="F22" s="3">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I22" s="3">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="5">
-        <f>AVERAGE(F22:J22)</f>
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="6">
-        <f>M16</f>
-        <v>8.4652758105662612E-4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>129</v>
-      </c>
+    <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -2095,27 +2163,35 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="6">
-        <f>AVERAGE('Tracking Difference'!E17:L17)/100</f>
-        <v>1.4250000000000029E-3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="4"/>
+      <c r="F25" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I25" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J25" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K25" s="3"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="5"/>
+      <c r="M25" s="5">
+        <f>AVERAGE(F25:J25)</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C26" s="6"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -2128,11 +2204,14 @@
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="C27" s="6">
-        <f>C25-C24</f>
-        <v>5.7847241894337675E-4</v>
+        <f>M16</f>
+        <v>8.4652758105662612E-4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>117</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -2146,11 +2225,14 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="C28" s="6">
-        <f>C27-C35</f>
-        <v>3.9472241894337675E-4</v>
+        <f>AVERAGE('Tracking Difference'!E17:L17)/100</f>
+        <v>1.4250000000000029E-3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>117</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -2163,13 +2245,7 @@
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="6">
-        <f>C28-M22</f>
-        <v>9.4722418943376781E-5</v>
-      </c>
+      <c r="C29" s="6"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -2181,7 +2257,13 @@
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C30" s="6"/>
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="6">
+        <f>C28-C27</f>
+        <v>5.7847241894337675E-4</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -2193,6 +2275,13 @@
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="6">
+        <f>C30-C37</f>
+        <v>3.9472241894337675E-4</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -2204,15 +2293,7 @@
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="C32" s="6"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -2224,12 +2305,7 @@
       <c r="M32" s="5"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="6">
-        <v>1E-3</v>
-      </c>
+      <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -2240,12 +2316,14 @@
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="5">
-        <f>AVERAGE(I10:J10)</f>
-        <v>1.6043325583258241E-4</v>
+      <c r="B34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -2259,13 +2337,11 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C35" s="6">
-        <f>AVERAGE(0.42%,1.05%)*2.5%</f>
-        <v>1.8375000000000002E-4</v>
-      </c>
-      <c r="E35" s="4"/>
+        <v>1E-3</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -2277,12 +2353,12 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" s="6">
-        <v>0</v>
-      </c>
-      <c r="D36" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C36" s="5">
+        <f>AVERAGE(I10:J10)</f>
+        <v>1.6043325583258241E-4</v>
+      </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -2292,17 +2368,15 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="5"/>
-      <c r="O36" s="3"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C37" s="6">
-        <f>J22</f>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="D37" s="4"/>
+        <f>AVERAGE(0.42%,1.05%)*2.5%</f>
+        <v>1.8375000000000002E-4</v>
+      </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -2312,38 +2386,42 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="5"/>
-      <c r="O37" s="3"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="5">
-        <f>SUM(C33:C37)</f>
-        <v>1.6441832558325823E-3</v>
-      </c>
-      <c r="D38" s="4">
-        <f>C38+C29</f>
-        <v>1.7389056747759591E-3</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="5"/>
+      <c r="O38" s="3"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="5">
+        <f>SUM(C35:C38)</f>
+        <v>1.3441832558325824E-3</v>
+      </c>
+      <c r="D39" s="4">
+        <f>C39+C31</f>
+        <v>1.7389056747759593E-3</v>
+      </c>
       <c r="L39" s="4"/>
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>136</v>
-      </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -2355,7 +2433,9 @@
       <c r="M40" s="5"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C41" s="6"/>
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -2377,21 +2457,23 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
+      <c r="C43" s="6"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C44" s="6"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
       <c r="E44" s="32"/>
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
@@ -2401,8 +2483,7 @@
       <c r="K44" s="32"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="C45" s="6"/>
       <c r="E45" s="32"/>
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
@@ -2412,8 +2493,8 @@
       <c r="K45" s="32"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
@@ -2423,16 +2504,27 @@
       <c r="K46" s="32"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C48" s="6"/>
-      <c r="D48" s="3"/>
+      <c r="D48" s="6"/>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="24"/>
-      <c r="D49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="24"/>
+      <c r="D50" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2443,9 +2535,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5B4C98-CE28-4015-A5EF-F840D4E9DB1C}">
-  <dimension ref="B2:O34"/>
+  <dimension ref="B2:O45"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2640,10 +2732,13 @@
         <v>5.7660396845184809E-4</v>
       </c>
       <c r="N8" s="3"/>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2673,320 +2768,530 @@
       <c r="L10" s="4"/>
       <c r="M10" s="6"/>
       <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2.8E-3</v>
-      </c>
-      <c r="D11" s="6">
-        <v>2E-3</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="F11" s="6">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G11" s="6">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="H11" s="6">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="I11" s="6">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="J11" s="6">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="6">
-        <f>AVERAGE(C11:J11)</f>
-        <v>2.4750000000000002E-3</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C11" s="2">
+        <f>C13-C5</f>
+        <v>203782</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" ref="D11:J11" si="1">D13-D5</f>
+        <v>565933</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>2307298</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>3852014</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>5152610</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>7494932</v>
+      </c>
+      <c r="I11" s="2">
+        <f>I13-I5</f>
+        <v>7692018</v>
+      </c>
+      <c r="J11" s="2">
+        <f>J13-J5</f>
+        <v>7835469</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="3"/>
       <c r="O11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="3">
+        <f>C11/C6</f>
+        <v>2.7979515592811231E-3</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:H12" si="2">D11/D6</f>
+        <v>2.0150290970824001E-3</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="2"/>
+        <v>2.8891141923255395E-3</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5310044237532212E-3</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1023201035762951E-3</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="2"/>
+        <v>1.9300558900174616E-3</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" ref="I12" si="3">I11/I6</f>
+        <v>1.7425570786414467E-3</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" ref="J12" si="4">J11/J6</f>
+        <v>1.7215513786769689E-3</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
       <c r="M12" s="6"/>
+      <c r="N12" s="3"/>
+      <c r="O12" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="15">
+        <v>252128</v>
+      </c>
+      <c r="D13" s="15">
+        <v>842623</v>
+      </c>
+      <c r="E13" s="15">
+        <v>2541872</v>
+      </c>
+      <c r="F13" s="15">
+        <v>4524697</v>
+      </c>
+      <c r="G13" s="15">
+        <v>6441892</v>
+      </c>
+      <c r="H13" s="15">
+        <v>9439821</v>
+      </c>
+      <c r="I13" s="15">
+        <v>10075715</v>
+      </c>
+      <c r="J13" s="15">
+        <v>10845159</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="3">
+        <f>C13/C6</f>
+        <v>3.4617479990304888E-3</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:J14" si="5">D13/D6</f>
+        <v>3.0001958939854423E-3</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="5"/>
+        <v>3.1828391782400471E-3</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="5"/>
+        <v>2.9729975340543747E-3</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="5"/>
+        <v>2.6283609775758902E-3</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="5"/>
+        <v>2.4308935853935066E-3</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="5"/>
+        <v>2.2825620657184894E-3</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="5"/>
+        <v>2.3828182369710015E-3</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="6">
+        <f>AVERAGE(C14:J14)</f>
+        <v>2.792801933871155E-3</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2.8E-3</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G16" s="6">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H16" s="6">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I16" s="6">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="J16" s="6">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C19" s="24">
         <f>1.53</f>
         <v>1.53</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D19" s="24">
         <f>1.09</f>
         <v>1.0900000000000001</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E19" s="24">
         <f>0.46</f>
         <v>0.46</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F19" s="24">
         <f>0.13</f>
         <v>0.13</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G19" s="24">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H19" s="24">
         <v>0.02</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I19" s="37">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J19" s="24">
         <v>0.01</v>
       </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="37">
-        <f>AVERAGE(C13:J13)</f>
+      <c r="K19" s="24"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="37">
+        <f>AVERAGE(C19:J19)</f>
         <v>0.54749999999999999</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C20" s="24">
         <v>0.1845</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D20" s="24">
         <v>2.6200000000000001E-2</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E20" s="24">
         <v>7.3300000000000004E-2</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F20" s="24">
         <v>0.2301</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G20" s="24">
         <v>1.7081</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H20" s="24">
         <v>0.2447</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I20" s="24">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J20" s="6">
         <v>0.1177</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="37">
-        <f>AVERAGE(C14:J14)</f>
+      <c r="K20" s="6"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="37">
+        <f>AVERAGE(C20:J20)</f>
         <v>0.32416250000000002</v>
       </c>
-      <c r="O14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="5"/>
-      <c r="O15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="6">
-        <f>M8+M11</f>
-        <v>3.0516039684518482E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="6">
-        <f>('Tracking Difference'!O23/100)-C16</f>
-        <v>1.1483960315481524E-3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>107</v>
-      </c>
-      <c r="O17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="6"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="6">
+        <f>M14</f>
+        <v>2.792801933871155E-3</v>
+      </c>
+      <c r="D22" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="1" t="s">
+    </row>
+    <row r="23" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="6">
+      <c r="C23" s="6">
+        <f>AVERAGE('Tracking Difference'!E30:L30)/100</f>
+        <v>1.6375000000000018E-3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="6">
+        <f>C23-C22</f>
+        <v>-1.1553019338711532E-3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="6">
+        <f>C25-C35</f>
+        <v>-1.3390519338711533E-3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="6"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="6">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C34" s="5">
         <f>AVERAGE(I8:J8)</f>
         <v>6.0063592268553775E-4</v>
       </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="6">
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="6">
         <f>AVERAGE(0.42%,1.05%)*2.5%</f>
         <v>1.8375000000000002E-4</v>
       </c>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="5">
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="5">
         <v>0</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="5">
-        <f>SUM(C22:C25)</f>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="5">
+        <f>SUM(C33:C36)</f>
         <v>3.2843859226855377E-3</v>
       </c>
-      <c r="D26" s="4">
-        <f>'Tracking Difference'!O23/100</f>
-        <v>4.2000000000000006E-3</v>
-      </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E27" s="4"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>121</v>
-      </c>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="24"/>
+      <c r="D37" s="4"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E38" s="4"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C45" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2997,9 +3302,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9123B064-D487-424B-955E-970CD2CDF897}">
-  <dimension ref="B2:O34"/>
+  <dimension ref="B2:O43"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3085,10 +3390,10 @@
         <v>203240</v>
       </c>
       <c r="I5" s="2">
+        <v>225040</v>
+      </c>
+      <c r="J5" s="2">
         <v>176525</v>
-      </c>
-      <c r="J5" s="2">
-        <v>225040</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -3138,11 +3443,11 @@
       </c>
       <c r="I7" s="4">
         <f t="shared" ref="I7:J7" si="0">I5/I6</f>
-        <v>2.7688748141495225E-4</v>
+        <v>3.5298546278216035E-4</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="0"/>
-        <v>2.5536097887661111E-4</v>
+        <v>2.0030926411390763E-4</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -3211,22 +3516,22 @@
       </c>
       <c r="I10" s="4">
         <f t="shared" ref="I10:J10" si="1">SUM(I7:I8)</f>
-        <v>4.4149275526601323E-4</v>
+        <v>5.1759073663322128E-4</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="1"/>
-        <v>3.5561488886956999E-4</v>
+        <v>3.0056317410686651E-4</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="6">
         <f>AVERAGE(G10:J10)</f>
-        <v>5.8172320068034791E-4</v>
+        <v>5.86984767331474E-4</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -3253,212 +3558,363 @@
       <c r="L12" s="4"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="6">
-        <v>2.3E-3</v>
-      </c>
-      <c r="G13" s="6">
-        <v>2.3E-3</v>
-      </c>
-      <c r="H13" s="6">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="I13" s="6">
-        <v>2.3E-3</v>
-      </c>
-      <c r="J13" s="6">
-        <v>2.3E-3</v>
-      </c>
-      <c r="K13" s="6"/>
-      <c r="M13" s="6">
-        <f>AVERAGE(G13:J13)</f>
-        <v>2.2750000000000001E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2">
+        <f>F15-F5</f>
+        <v>106265</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" ref="G13:J13" si="2">G15-G5</f>
+        <v>264380</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="2"/>
+        <v>809034</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="2"/>
+        <v>992286</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="2"/>
+        <v>1204930</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
+        <f>F13/F6</f>
+        <v>7.889886951317909E-4</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" ref="G14:H14" si="3">G13/G6</f>
+        <v>1.2593795804972225E-3</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5066112780925337E-3</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" ref="I14" si="4">I13/I6</f>
+        <v>1.5564456670914451E-3</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" ref="J14" si="5">J13/J6</f>
+        <v>1.3672773919205252E-3</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
       <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="15">
+        <v>108396</v>
+      </c>
+      <c r="G15" s="15">
+        <v>404158</v>
+      </c>
+      <c r="H15" s="15">
+        <v>1012274</v>
+      </c>
+      <c r="I15" s="15">
+        <v>1217326</v>
+      </c>
+      <c r="J15" s="15">
+        <v>1381455</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="6"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="6">
+        <f>F15/F6</f>
+        <v>8.0481078998264342E-4</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" ref="G16:H16" si="6">G15/G6</f>
+        <v>1.9252149651811652E-3</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="6"/>
+        <v>1.8850918810826758E-3</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" ref="I16" si="7">I15/I6</f>
+        <v>1.9094311298736054E-3</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" ref="J16" si="8">J15/J6</f>
+        <v>1.5675866560344329E-3</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="M16" s="6">
+        <f>AVERAGE(G16:J16)</f>
+        <v>1.8218311580429697E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="6">
+        <v>2.3E-3</v>
+      </c>
+      <c r="G18" s="6">
+        <v>2.3E-3</v>
+      </c>
+      <c r="H18" s="6">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="I18" s="6">
+        <v>2.3E-3</v>
+      </c>
+      <c r="J18" s="6">
+        <v>2.3E-3</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F21" s="37">
         <f>0.01</f>
         <v>0.01</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G21" s="37">
         <v>0.17</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H21" s="37">
         <v>0.1</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I21" s="37">
         <v>0.09</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J21" s="37">
         <v>0.05</v>
       </c>
-      <c r="K16" s="37"/>
-      <c r="M16" s="37">
-        <f>AVERAGE(G16:J16)</f>
+      <c r="K21" s="37"/>
+      <c r="M21" s="37">
+        <f>AVERAGE(G21:J21)</f>
         <v>0.10249999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F23" s="6">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G23" s="6">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H23" s="6">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I23" s="6">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J23" s="6">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="M18" s="6">
-        <f>AVERAGE(G18:J18)</f>
+      <c r="K23" s="6"/>
+      <c r="M23" s="6">
+        <f>AVERAGE(G23:J23)</f>
         <v>3.5E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="6">
-        <f>M10+M13</f>
-        <v>2.856723200680348E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="6">
-        <f>('Tracking Difference'!O46/100)-C20</f>
-        <v>4.8327679931965163E-4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-    </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="4"/>
+      <c r="B24" s="1"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="M24" s="6"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C26" s="6">
-        <v>2.3E-3</v>
-      </c>
-      <c r="E26" t="s">
-        <v>118</v>
+        <f>M16</f>
+        <v>1.8218311580429697E-3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="6">
+        <f>AVERAGE('Tracking Difference'!I43:L43)/100</f>
+        <v>1.4250000000000053E-3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="6">
+        <f>C27-C26</f>
+        <v>-3.968311580429644E-4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="6">
+        <f>C29-C39</f>
+        <v>-3.2896581134130081E-3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="6">
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C36" s="5">
         <f>AVERAGE(I10:J10)</f>
-        <v>3.9855382206779161E-4</v>
-      </c>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="6">
+        <v>4.090769553700439E-4</v>
+      </c>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="6">
         <f>AVERAGE(0.42%,1.05%)*2.5%</f>
         <v>1.8375000000000002E-4</v>
       </c>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="5">
         <v>0</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="5">
-        <f>SUM(C26:C29)</f>
-        <v>2.8823038220677916E-3</v>
-      </c>
-      <c r="D30" s="4">
-        <f>'Tracking Difference'!O46/100</f>
-        <v>3.3399999999999997E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>120</v>
-      </c>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="12"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="36"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="5">
+        <f>SUM(C35:C38)</f>
+        <v>2.8928269553700437E-3</v>
+      </c>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="12"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3773,7 +4229,7 @@
         <v>81</v>
       </c>
       <c r="C18" s="3">
-        <f>'Tracking Difference'!O31/100</f>
+        <f>'Tracking Difference'!O53/100</f>
         <v>3.274999999999998E-3</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -4201,7 +4657,7 @@
         <v>81</v>
       </c>
       <c r="C18" s="3">
-        <f>'Tracking Difference'!O39/100</f>
+        <f>'Tracking Difference'!O61/100</f>
         <v>1.6499999999999959E-3</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -4704,7 +5160,7 @@
         <v>2023</v>
       </c>
       <c r="M17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N17" s="5"/>
       <c r="P17" s="5"/>
@@ -5249,20 +5705,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F528616F-4365-4E03-AA99-F5C2282C78C2}">
-  <dimension ref="B2:AI72"/>
+  <dimension ref="B2:AI85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="73" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.42578125" customWidth="1"/>
     <col min="20" max="20" width="21" customWidth="1"/>
     <col min="27" max="27" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B2" s="16"/>
       <c r="C2" s="17">
         <v>2014</v>
@@ -5308,9 +5764,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -5348,7 +5804,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>43</v>
       </c>
@@ -5392,7 +5848,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>44</v>
       </c>
@@ -5429,7 +5885,7 @@
       <c r="O5" s="16"/>
       <c r="P5" s="19"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>46</v>
       </c>
@@ -5478,7 +5934,7 @@
         <v>0.32444444444444359</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
         <v>45</v>
       </c>
@@ -5527,111 +5983,208 @@
       </c>
       <c r="P7" s="19"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+      <c r="E8" s="19">
+        <f>(World!C18+World!C10)*100</f>
+        <v>4.3528648432442349E-2</v>
+      </c>
+      <c r="F8" s="19">
+        <f>(World!D18+World!D10)*100</f>
+        <v>3.4478284409255912E-2</v>
+      </c>
+      <c r="G8" s="19">
+        <f>(World!E18+World!E10)*100</f>
+        <v>0.12423001103285963</v>
+      </c>
+      <c r="H8" s="19">
+        <f>(World!F18+World!F10)*100</f>
+        <v>0.15544678325229774</v>
+      </c>
+      <c r="I8" s="19">
+        <f>(World!G18+World!G10)*100</f>
+        <v>0.19538074941298425</v>
+      </c>
+      <c r="J8" s="19">
+        <f>(World!H18+World!H10)*100</f>
+        <v>0.16298431527730475</v>
+      </c>
+      <c r="K8" s="19">
+        <f>(World!I18+World!I10)*100</f>
+        <v>0.16770243967030612</v>
+      </c>
+      <c r="L8" s="19">
+        <f>(World!J18+World!J10)*100</f>
+        <v>0.16438421149621035</v>
+      </c>
       <c r="M8" s="19"/>
       <c r="N8" s="16"/>
-      <c r="O8" s="19"/>
       <c r="P8" s="19"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="I10">
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="26">
+        <f>E8-E7</f>
+        <v>-0.12647135156755757</v>
+      </c>
+      <c r="F9" s="26">
+        <f t="shared" ref="F9:L9" si="2">F8-F7</f>
+        <v>-0.18552171559074296</v>
+      </c>
+      <c r="G9" s="26">
+        <f t="shared" si="2"/>
+        <v>-5.5769988967140083E-2</v>
+      </c>
+      <c r="H9" s="26">
+        <f t="shared" si="2"/>
+        <v>-8.4553216747704246E-2</v>
+      </c>
+      <c r="I9" s="26">
+        <f t="shared" si="2"/>
+        <v>-0.11461925058701447</v>
+      </c>
+      <c r="J9" s="26">
+        <f t="shared" si="2"/>
+        <v>-8.7015684722695247E-2</v>
+      </c>
+      <c r="K9" s="26">
+        <f t="shared" si="2"/>
+        <v>4.770243967030513E-2</v>
+      </c>
+      <c r="L9" s="26">
+        <f t="shared" si="2"/>
+        <v>-0.18561578850378752</v>
+      </c>
+      <c r="M9" s="26"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="26">
+        <f>AVERAGE(E9:L9)</f>
+        <v>-9.898306962704212E-2</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11">
         <v>8.32</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>31.84</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>-13.64</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>20.7</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>26.57</v>
       </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="19">
-        <f>I10-I5</f>
+      <c r="I12" s="19">
+        <f>I11-I5</f>
         <v>0.33999999999999986</v>
       </c>
-      <c r="J11" s="19">
-        <f t="shared" ref="J11:M11" si="2">J10-J5</f>
+      <c r="J12" s="19">
+        <f>J11-J5</f>
         <v>0.41999999999999815</v>
       </c>
-      <c r="K11" s="19">
-        <f t="shared" si="2"/>
+      <c r="K12" s="19">
+        <f>K11-K5</f>
         <v>0.36999999999999922</v>
       </c>
-      <c r="L11" s="19">
-        <f t="shared" si="2"/>
+      <c r="L12" s="19">
+        <f>L11-L5</f>
         <v>0.43999999999999773</v>
       </c>
-      <c r="M11" s="19">
-        <f t="shared" si="2"/>
+      <c r="M12" s="19">
+        <f>M11-M5</f>
         <v>-0.28000000000000114</v>
       </c>
-      <c r="P11" s="26">
-        <f>AVERAGE(I11:M11)</f>
+      <c r="P12" s="26">
+        <f>AVERAGE(I12:M12)</f>
         <v>0.25799999999999879</v>
       </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="19">
-        <f>I4-I10</f>
+      <c r="I13" s="19">
+        <f>I4-I11</f>
         <v>0.20999999999999908</v>
       </c>
-      <c r="J12" s="19">
-        <f t="shared" ref="J12:M12" si="3">J4-J10</f>
+      <c r="J13" s="19">
+        <f>J4-J11</f>
         <v>0.14999999999999858</v>
       </c>
-      <c r="K12" s="19">
-        <f t="shared" si="3"/>
+      <c r="K13" s="19">
+        <f>K4-K11</f>
         <v>5.0000000000000711E-2</v>
       </c>
-      <c r="L12" s="19">
-        <f t="shared" si="3"/>
+      <c r="L13" s="19">
+        <f>L4-L11</f>
         <v>0.16000000000000014</v>
       </c>
-      <c r="M12" s="19">
-        <f t="shared" si="3"/>
+      <c r="M13" s="19">
+        <f>M4-M11</f>
         <v>0.82999999999999829</v>
       </c>
-      <c r="O12" s="29">
-        <f>AVERAGE(I12:M12)</f>
+      <c r="O13" s="29">
+        <f>AVERAGE(I13:M13)</f>
         <v>0.27999999999999936</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="O13" s="26"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
@@ -5640,9 +6193,9 @@
       <c r="M14" s="19"/>
       <c r="O14" s="26"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E15">
         <v>10.54</v>
@@ -5671,40 +6224,40 @@
       <c r="M15" s="19"/>
       <c r="O15" s="26"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="26">
-        <f t="shared" ref="E16:L16" si="4">E15-E5</f>
+        <f>E15-E5</f>
         <v>0.46999999999999886</v>
       </c>
       <c r="F16" s="26">
-        <f t="shared" si="4"/>
+        <f>F15-F5</f>
         <v>0.37000000000000011</v>
       </c>
       <c r="G16" s="26">
-        <f t="shared" si="4"/>
+        <f>G15-G5</f>
         <v>0.43999999999999995</v>
       </c>
       <c r="H16" s="26">
-        <f t="shared" si="4"/>
+        <f>H15-H5</f>
         <v>0.57999999999999829</v>
       </c>
       <c r="I16" s="26">
-        <f t="shared" si="4"/>
+        <f>I15-I5</f>
         <v>0.30999999999999872</v>
       </c>
       <c r="J16" s="26">
-        <f t="shared" si="4"/>
+        <f>J15-J5</f>
         <v>0.47999999999999687</v>
       </c>
       <c r="K16" s="26">
-        <f t="shared" si="4"/>
+        <f>K15-K5</f>
         <v>0.41000000000000014</v>
       </c>
       <c r="L16" s="26">
-        <f t="shared" si="4"/>
+        <f>L15-L5</f>
         <v>0.43999999999999773</v>
       </c>
       <c r="M16" s="19"/>
@@ -5714,40 +6267,40 @@
         <v>0.43749999999999883</v>
       </c>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="26">
-        <f t="shared" ref="E17:L17" si="5">E4-E15</f>
+        <f>E4-E15</f>
         <v>0.18000000000000149</v>
       </c>
       <c r="F17" s="26">
-        <f t="shared" si="5"/>
+        <f>F4-F15</f>
         <v>0.21999999999999886</v>
       </c>
       <c r="G17" s="26">
-        <f t="shared" si="5"/>
+        <f>G4-G15</f>
         <v>8.9999999999999858E-2</v>
       </c>
       <c r="H17" s="26">
-        <f t="shared" si="5"/>
+        <f>H4-H15</f>
         <v>0.15000000000000213</v>
       </c>
       <c r="I17" s="26">
-        <f t="shared" si="5"/>
+        <f>I4-I15</f>
         <v>0.24000000000000021</v>
       </c>
       <c r="J17" s="26">
-        <f t="shared" si="5"/>
+        <f>J4-J15</f>
         <v>8.9999999999999858E-2</v>
       </c>
       <c r="K17" s="26">
-        <f t="shared" si="5"/>
+        <f>K4-K15</f>
         <v>9.9999999999997868E-3</v>
       </c>
       <c r="L17" s="26">
-        <f t="shared" si="5"/>
+        <f>L4-L15</f>
         <v>0.16000000000000014</v>
       </c>
       <c r="M17" s="19"/>
@@ -5756,879 +6309,1101 @@
         <v>0.14250000000000029</v>
       </c>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-    </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22">
-        <v>12.94</v>
-      </c>
-      <c r="F19" s="22">
-        <v>21.63</v>
-      </c>
-      <c r="G19" s="22">
-        <v>-10.75</v>
-      </c>
-      <c r="H19" s="22">
-        <v>20.82</v>
-      </c>
-      <c r="I19" s="22">
-        <v>10.26</v>
-      </c>
-      <c r="J19" s="22">
-        <v>3.81</v>
-      </c>
-      <c r="K19" s="22">
-        <v>-15.57</v>
-      </c>
-      <c r="L19" s="22">
-        <v>5.57</v>
-      </c>
-      <c r="M19" s="22">
-        <v>15.02</v>
-      </c>
-      <c r="N19" s="22"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="22"/>
-    </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="22">
-        <v>12.03</v>
-      </c>
-      <c r="D20" s="22">
-        <v>-3.64</v>
-      </c>
-      <c r="E20" s="22">
-        <v>13.57</v>
-      </c>
-      <c r="F20" s="22">
-        <v>21.71</v>
-      </c>
-      <c r="G20" s="22">
-        <v>-10.25</v>
-      </c>
-      <c r="H20" s="22">
-        <v>21.08</v>
-      </c>
-      <c r="I20" s="22">
-        <v>10.72</v>
-      </c>
-      <c r="J20" s="22">
-        <v>4.07</v>
-      </c>
-      <c r="K20" s="22">
-        <v>-15.23</v>
-      </c>
-      <c r="L20" s="22">
-        <v>6.3</v>
-      </c>
-      <c r="M20" s="22">
-        <v>15.54</v>
-      </c>
-      <c r="N20" s="22"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="22"/>
-    </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22">
-        <v>13.14</v>
-      </c>
-      <c r="F21" s="22">
-        <v>21.3</v>
-      </c>
-      <c r="G21" s="22">
-        <v>-10.6</v>
-      </c>
-      <c r="H21" s="22">
-        <v>20.61</v>
-      </c>
-      <c r="I21" s="22">
-        <v>10.37</v>
-      </c>
-      <c r="J21" s="22">
-        <v>3.74</v>
-      </c>
-      <c r="K21" s="22">
-        <v>-15.59</v>
-      </c>
-      <c r="L21" s="22">
-        <v>5.89</v>
-      </c>
-      <c r="M21" s="22">
-        <v>14.95</v>
-      </c>
-      <c r="N21" s="22"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="22"/>
-    </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="26">
+        <f>World!C16*100</f>
+        <v>2.6266407285764366E-2</v>
+      </c>
+      <c r="F18" s="26">
+        <f>World!D16*100</f>
+        <v>2.8077493451108815E-2</v>
+      </c>
+      <c r="G18" s="26">
+        <f>World!E16*100</f>
+        <v>0.12805674672750267</v>
+      </c>
+      <c r="H18" s="26">
+        <f>World!F16*100</f>
+        <v>0.12210870754241522</v>
+      </c>
+      <c r="I18" s="26">
+        <f>World!G16*100</f>
+        <v>0.13943631119150182</v>
+      </c>
+      <c r="J18" s="26">
+        <f>World!H16*100</f>
+        <v>0.10148625522145281</v>
+      </c>
+      <c r="K18" s="26">
+        <f>World!I16*100</f>
+        <v>9.0337810305952074E-2</v>
+      </c>
+      <c r="L18" s="26">
+        <f>World!J16*100</f>
+        <v>4.1452333119603071E-2</v>
+      </c>
+      <c r="M18" s="19"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="26">
+        <f>E18-E17</f>
+        <v>-0.15373359271423712</v>
+      </c>
+      <c r="F19" s="26">
+        <f t="shared" ref="F19:L19" si="3">F18-F17</f>
+        <v>-0.19192250654889004</v>
+      </c>
+      <c r="G19" s="26">
+        <f t="shared" si="3"/>
+        <v>3.805674672750281E-2</v>
+      </c>
+      <c r="H19" s="26">
+        <f t="shared" si="3"/>
+        <v>-2.7891292457586911E-2</v>
+      </c>
+      <c r="I19" s="26">
+        <f t="shared" si="3"/>
+        <v>-0.10056368880849839</v>
+      </c>
+      <c r="J19" s="26">
+        <f t="shared" si="3"/>
+        <v>1.1486255221452954E-2</v>
+      </c>
+      <c r="K19" s="26">
+        <f t="shared" si="3"/>
+        <v>8.0337810305952287E-2</v>
+      </c>
+      <c r="L19" s="26">
+        <f t="shared" si="3"/>
+        <v>-0.11854766688039707</v>
+      </c>
+      <c r="M19" s="19"/>
+      <c r="O19" s="26"/>
+      <c r="Q19" s="26">
+        <f>AVERAGE(E19:L19)</f>
+        <v>-5.7847241894337688E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="18"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="19"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="18"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="21" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22">
-        <f t="shared" ref="E22:M22" si="6">E19-E21</f>
+        <v>12.94</v>
+      </c>
+      <c r="F22" s="22">
+        <v>21.63</v>
+      </c>
+      <c r="G22" s="22">
+        <v>-10.75</v>
+      </c>
+      <c r="H22" s="22">
+        <v>20.82</v>
+      </c>
+      <c r="I22" s="22">
+        <v>10.26</v>
+      </c>
+      <c r="J22" s="22">
+        <v>3.81</v>
+      </c>
+      <c r="K22" s="22">
+        <v>-15.57</v>
+      </c>
+      <c r="L22" s="22">
+        <v>5.57</v>
+      </c>
+      <c r="M22" s="22">
+        <v>15.02</v>
+      </c>
+      <c r="N22" s="22"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="22"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="22">
+        <v>12.03</v>
+      </c>
+      <c r="D23" s="22">
+        <v>-3.64</v>
+      </c>
+      <c r="E23" s="22">
+        <v>13.57</v>
+      </c>
+      <c r="F23" s="22">
+        <v>21.71</v>
+      </c>
+      <c r="G23" s="22">
+        <v>-10.25</v>
+      </c>
+      <c r="H23" s="22">
+        <v>21.08</v>
+      </c>
+      <c r="I23" s="22">
+        <v>10.72</v>
+      </c>
+      <c r="J23" s="22">
+        <v>4.07</v>
+      </c>
+      <c r="K23" s="22">
+        <v>-15.23</v>
+      </c>
+      <c r="L23" s="22">
+        <v>6.3</v>
+      </c>
+      <c r="M23" s="22">
+        <v>15.54</v>
+      </c>
+      <c r="N23" s="22"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="22"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22">
+        <v>13.14</v>
+      </c>
+      <c r="F24" s="22">
+        <v>21.3</v>
+      </c>
+      <c r="G24" s="22">
+        <v>-10.6</v>
+      </c>
+      <c r="H24" s="22">
+        <v>20.61</v>
+      </c>
+      <c r="I24" s="22">
+        <v>10.37</v>
+      </c>
+      <c r="J24" s="22">
+        <v>3.74</v>
+      </c>
+      <c r="K24" s="22">
+        <v>-15.59</v>
+      </c>
+      <c r="L24" s="22">
+        <v>5.89</v>
+      </c>
+      <c r="M24" s="22">
+        <v>14.95</v>
+      </c>
+      <c r="N24" s="22"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="22"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22">
+        <f t="shared" ref="E25:M25" si="4">E22-E24</f>
         <v>-0.20000000000000107</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F25" s="22">
+        <f t="shared" si="4"/>
+        <v>0.32999999999999829</v>
+      </c>
+      <c r="G25" s="22">
+        <f t="shared" si="4"/>
+        <v>-0.15000000000000036</v>
+      </c>
+      <c r="H25" s="22">
+        <f t="shared" si="4"/>
+        <v>0.21000000000000085</v>
+      </c>
+      <c r="I25" s="22">
+        <f t="shared" si="4"/>
+        <v>-0.10999999999999943</v>
+      </c>
+      <c r="J25" s="22">
+        <f t="shared" si="4"/>
+        <v>6.999999999999984E-2</v>
+      </c>
+      <c r="K25" s="22">
+        <f t="shared" si="4"/>
+        <v>1.9999999999999574E-2</v>
+      </c>
+      <c r="L25" s="22">
+        <f t="shared" si="4"/>
+        <v>-0.3199999999999994</v>
+      </c>
+      <c r="M25" s="22">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000284E-2</v>
+      </c>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22">
+        <f>AVERAGE(E25:M25)</f>
+        <v>-8.888888888889045E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22">
+        <f t="shared" ref="E26:M26" si="5">E23-E22</f>
+        <v>0.63000000000000078</v>
+      </c>
+      <c r="F26" s="22">
+        <f t="shared" si="5"/>
+        <v>8.0000000000001847E-2</v>
+      </c>
+      <c r="G26" s="22">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="H26" s="22">
+        <f t="shared" si="5"/>
+        <v>0.25999999999999801</v>
+      </c>
+      <c r="I26" s="22">
+        <f t="shared" si="5"/>
+        <v>0.46000000000000085</v>
+      </c>
+      <c r="J26" s="22">
+        <f t="shared" si="5"/>
+        <v>0.26000000000000023</v>
+      </c>
+      <c r="K26" s="22">
+        <f t="shared" si="5"/>
+        <v>0.33999999999999986</v>
+      </c>
+      <c r="L26" s="22">
+        <f t="shared" si="5"/>
+        <v>0.72999999999999954</v>
+      </c>
+      <c r="M26" s="22">
+        <f t="shared" si="5"/>
+        <v>0.51999999999999957</v>
+      </c>
+      <c r="N26" s="22"/>
+      <c r="O26" s="27">
+        <f>AVERAGE(E26:M26)</f>
+        <v>0.4200000000000001</v>
+      </c>
+      <c r="P26" s="22"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22">
+        <v>13.24</v>
+      </c>
+      <c r="F28" s="22">
+        <v>21.79</v>
+      </c>
+      <c r="G28" s="22">
+        <v>-10.51</v>
+      </c>
+      <c r="H28" s="22">
+        <v>21.13</v>
+      </c>
+      <c r="I28" s="22">
+        <v>10.51</v>
+      </c>
+      <c r="J28" s="22">
+        <v>4.04</v>
+      </c>
+      <c r="K28" s="22">
+        <v>-15.34</v>
+      </c>
+      <c r="L28" s="22">
+        <v>5.8</v>
+      </c>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22">
+        <f>E28-E24</f>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="F29" s="22">
+        <f t="shared" ref="F29:L29" si="6">F28-F24</f>
+        <v>0.48999999999999844</v>
+      </c>
+      <c r="G29" s="22">
         <f t="shared" si="6"/>
-        <v>0.32999999999999829</v>
-      </c>
-      <c r="G22" s="22">
+        <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="H29" s="22">
         <f t="shared" si="6"/>
-        <v>-0.15000000000000036</v>
-      </c>
-      <c r="H22" s="22">
+        <v>0.51999999999999957</v>
+      </c>
+      <c r="I29" s="22">
         <f t="shared" si="6"/>
+        <v>0.14000000000000057</v>
+      </c>
+      <c r="J29" s="22">
+        <f t="shared" si="6"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="K29" s="22">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="L29" s="22">
+        <f t="shared" si="6"/>
+        <v>-8.9999999999999858E-2</v>
+      </c>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22">
+        <f>AVERAGE(E29:L29)</f>
+        <v>0.22499999999999976</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22">
+        <f>E23-E28</f>
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="F30" s="22">
+        <f t="shared" ref="F30:L30" si="7">F23-F28</f>
+        <v>-7.9999999999998295E-2</v>
+      </c>
+      <c r="G30" s="22">
+        <f t="shared" si="7"/>
+        <v>0.25999999999999979</v>
+      </c>
+      <c r="H30" s="22">
+        <f t="shared" si="7"/>
+        <v>-5.0000000000000711E-2</v>
+      </c>
+      <c r="I30" s="22">
+        <f t="shared" si="7"/>
         <v>0.21000000000000085</v>
       </c>
-      <c r="I22" s="22">
-        <f t="shared" si="6"/>
-        <v>-0.10999999999999943</v>
-      </c>
-      <c r="J22" s="22">
-        <f t="shared" si="6"/>
-        <v>6.999999999999984E-2</v>
-      </c>
-      <c r="K22" s="22">
-        <f t="shared" si="6"/>
-        <v>1.9999999999999574E-2</v>
-      </c>
-      <c r="L22" s="22">
-        <f t="shared" si="6"/>
-        <v>-0.3199999999999994</v>
-      </c>
-      <c r="M22" s="22">
-        <f t="shared" si="6"/>
-        <v>7.0000000000000284E-2</v>
-      </c>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22">
-        <f>AVERAGE(E22:M22)</f>
-        <v>-8.888888888889045E-3</v>
-      </c>
-      <c r="U22" s="1">
-        <f t="shared" ref="U22:AB24" si="7">E2</f>
-        <v>2016</v>
-      </c>
-      <c r="V22" s="1">
+      <c r="J30" s="22">
         <f t="shared" si="7"/>
-        <v>2017</v>
-      </c>
-      <c r="W22" s="1">
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="K30" s="22">
         <f t="shared" si="7"/>
-        <v>2018</v>
-      </c>
-      <c r="X22" s="1">
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="L30" s="22">
         <f t="shared" si="7"/>
-        <v>2019</v>
-      </c>
-      <c r="Y22" s="1">
-        <f t="shared" si="7"/>
-        <v>2020</v>
-      </c>
-      <c r="Z22" s="1">
-        <f t="shared" si="7"/>
-        <v>2021</v>
-      </c>
-      <c r="AA22" s="1">
-        <f t="shared" si="7"/>
-        <v>2022</v>
-      </c>
-      <c r="AB22" s="1">
-        <f t="shared" si="7"/>
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22">
-        <f t="shared" ref="E23:M23" si="8">E20-E19</f>
-        <v>0.63000000000000078</v>
-      </c>
-      <c r="F23" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="27">
+        <f>AVERAGE(E30:L30)</f>
+        <v>0.16375000000000017</v>
+      </c>
+      <c r="P30" s="22"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22">
+        <f>Emerging!C14*100</f>
+        <v>0.34617479990304889</v>
+      </c>
+      <c r="F31" s="22">
+        <f>Emerging!D14*100</f>
+        <v>0.30001958939854423</v>
+      </c>
+      <c r="G31" s="22">
+        <f>Emerging!E14*100</f>
+        <v>0.31828391782400473</v>
+      </c>
+      <c r="H31" s="22">
+        <f>Emerging!F14*100</f>
+        <v>0.29729975340543746</v>
+      </c>
+      <c r="I31" s="22">
+        <f>Emerging!G14*100</f>
+        <v>0.26283609775758904</v>
+      </c>
+      <c r="J31" s="22">
+        <f>Emerging!H14*100</f>
+        <v>0.24308935853935065</v>
+      </c>
+      <c r="K31" s="22">
+        <f>Emerging!I14*100</f>
+        <v>0.22825620657184895</v>
+      </c>
+      <c r="L31" s="22">
+        <f>Emerging!J14*100</f>
+        <v>0.23828182369710016</v>
+      </c>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22">
+        <f>E31-E30</f>
+        <v>1.617479990304882E-2</v>
+      </c>
+      <c r="F32" s="22">
+        <f t="shared" ref="F32:L32" si="8">F31-F30</f>
+        <v>0.38001958939854252</v>
+      </c>
+      <c r="G32" s="22">
         <f t="shared" si="8"/>
-        <v>8.0000000000001847E-2</v>
-      </c>
-      <c r="G23" s="22">
+        <v>5.8283917824004938E-2</v>
+      </c>
+      <c r="H32" s="22">
         <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="H23" s="22">
+        <v>0.34729975340543817</v>
+      </c>
+      <c r="I32" s="22">
         <f t="shared" si="8"/>
-        <v>0.25999999999999801</v>
-      </c>
-      <c r="I23" s="22">
+        <v>5.2836097757588185E-2</v>
+      </c>
+      <c r="J32" s="22">
         <f t="shared" si="8"/>
-        <v>0.46000000000000085</v>
-      </c>
-      <c r="J23" s="22">
+        <v>0.2130893585393504</v>
+      </c>
+      <c r="K32" s="22">
         <f t="shared" si="8"/>
-        <v>0.26000000000000023</v>
-      </c>
-      <c r="K23" s="22">
+        <v>0.11825620657184951</v>
+      </c>
+      <c r="L32" s="22">
         <f t="shared" si="8"/>
-        <v>0.33999999999999986</v>
-      </c>
-      <c r="L23" s="22">
-        <f t="shared" si="8"/>
-        <v>0.72999999999999954</v>
-      </c>
-      <c r="M23" s="22">
-        <f t="shared" si="8"/>
-        <v>0.51999999999999957</v>
-      </c>
-      <c r="N23" s="22"/>
-      <c r="O23" s="27">
-        <f>AVERAGE(E23:M23)</f>
-        <v>0.4200000000000001</v>
-      </c>
-      <c r="P23" s="22"/>
-      <c r="T23" t="s">
-        <v>108</v>
-      </c>
-      <c r="U23" s="26">
-        <f>E15</f>
-        <v>10.54</v>
-      </c>
-      <c r="V23" s="26">
-        <f t="shared" ref="V23:AB23" si="9">F15</f>
-        <v>8.32</v>
-      </c>
-      <c r="W23" s="26">
-        <f t="shared" si="9"/>
-        <v>-3.21</v>
-      </c>
-      <c r="X23" s="26">
-        <f t="shared" si="9"/>
-        <v>31.02</v>
-      </c>
-      <c r="Y23" s="26">
-        <f t="shared" si="9"/>
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="Z23" s="26">
-        <f t="shared" si="9"/>
-        <v>31.9</v>
-      </c>
-      <c r="AA23" s="26">
-        <f t="shared" si="9"/>
-        <v>-13.6</v>
-      </c>
-      <c r="AB23" s="26">
-        <f t="shared" si="9"/>
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="T24" t="s">
-        <v>122</v>
-      </c>
-      <c r="U24" s="26">
-        <f t="shared" si="7"/>
-        <v>10.72</v>
-      </c>
-      <c r="V24" s="26">
-        <f t="shared" si="7"/>
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="W24" s="26">
-        <f t="shared" si="7"/>
-        <v>-3.12</v>
-      </c>
-      <c r="X24" s="26">
-        <f t="shared" si="7"/>
-        <v>31.17</v>
-      </c>
-      <c r="Y24" s="26">
-        <f t="shared" si="7"/>
-        <v>8.5299999999999994</v>
-      </c>
-      <c r="Z24" s="26">
-        <f t="shared" si="7"/>
-        <v>31.99</v>
-      </c>
-      <c r="AA24" s="26">
-        <f t="shared" si="7"/>
-        <v>-13.59</v>
-      </c>
-      <c r="AB24" s="26">
-        <f t="shared" si="7"/>
-        <v>20.86</v>
-      </c>
-    </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="T25" t="s">
-        <v>123</v>
-      </c>
-      <c r="U25" s="26">
-        <f>U24-U23</f>
-        <v>0.18000000000000149</v>
-      </c>
-      <c r="V25" s="26">
-        <f t="shared" ref="V25:AB25" si="10">V24-V23</f>
-        <v>0.21999999999999886</v>
-      </c>
-      <c r="W25" s="26">
-        <f t="shared" si="10"/>
-        <v>8.9999999999999858E-2</v>
-      </c>
-      <c r="X25" s="26">
-        <f t="shared" si="10"/>
-        <v>0.15000000000000213</v>
-      </c>
-      <c r="Y25" s="26">
-        <f t="shared" si="10"/>
-        <v>0.24000000000000021</v>
-      </c>
-      <c r="Z25" s="26">
-        <f t="shared" si="10"/>
-        <v>8.9999999999999858E-2</v>
-      </c>
-      <c r="AA25" s="26">
-        <f t="shared" si="10"/>
-        <v>9.9999999999997868E-3</v>
-      </c>
-      <c r="AB25" s="26">
-        <f t="shared" si="10"/>
-        <v>0.16000000000000014</v>
-      </c>
-    </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B26" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26">
-        <v>14.75</v>
-      </c>
-      <c r="F26">
-        <v>7.07</v>
-      </c>
-      <c r="G26">
-        <v>0.35</v>
-      </c>
-      <c r="H26">
-        <v>34.049999999999997</v>
-      </c>
-    </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B27" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27">
-        <v>14.47</v>
-      </c>
-      <c r="F27">
-        <v>6.77</v>
-      </c>
-      <c r="G27">
-        <v>0.02</v>
-      </c>
-      <c r="H27">
-        <v>33.590000000000003</v>
-      </c>
-      <c r="T27" t="s">
-        <v>137</v>
-      </c>
-      <c r="U27" s="26">
-        <f>World!C16*100</f>
-        <v>2.6266407285764366E-2</v>
-      </c>
-      <c r="V27" s="26">
-        <f>World!D16*100</f>
-        <v>2.8077493451108815E-2</v>
-      </c>
-      <c r="W27" s="26">
-        <f>World!E16*100</f>
-        <v>0.12805674672750267</v>
-      </c>
-      <c r="X27" s="26">
-        <f>World!F16*100</f>
-        <v>0.12210870754241522</v>
-      </c>
-      <c r="Y27" s="26">
-        <f>World!G16*100</f>
-        <v>0.13943631119150182</v>
-      </c>
-      <c r="Z27" s="26">
-        <f>World!H16*100</f>
-        <v>0.10148625522145281</v>
-      </c>
-      <c r="AA27" s="26">
-        <f>World!I16*100</f>
-        <v>9.0337810305952074E-2</v>
-      </c>
-      <c r="AB27" s="26">
-        <f>World!J16*100</f>
-        <v>4.1452333119603071E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B28" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28">
-        <v>15.19</v>
-      </c>
-      <c r="F28">
-        <v>7.39</v>
-      </c>
-      <c r="G28">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H28">
-        <v>34.369999999999997</v>
-      </c>
-      <c r="T28" t="s">
-        <v>124</v>
-      </c>
-      <c r="U28" s="26">
-        <f>U27-U25</f>
-        <v>-0.15373359271423712</v>
-      </c>
-      <c r="V28" s="26">
-        <f t="shared" ref="V28:AB28" si="11">V27-V25</f>
-        <v>-0.19192250654889004</v>
-      </c>
-      <c r="W28" s="26">
-        <f t="shared" si="11"/>
-        <v>3.805674672750281E-2</v>
-      </c>
-      <c r="X28" s="26">
-        <f t="shared" si="11"/>
-        <v>-2.7891292457586911E-2</v>
-      </c>
-      <c r="Y28" s="26">
-        <f t="shared" si="11"/>
-        <v>-0.10056368880849839</v>
-      </c>
-      <c r="Z28" s="26">
-        <f t="shared" si="11"/>
-        <v>1.1486255221452954E-2</v>
-      </c>
-      <c r="AA28" s="26">
-        <f t="shared" si="11"/>
-        <v>8.0337810305952287E-2</v>
-      </c>
-      <c r="AB28" s="26">
-        <f t="shared" si="11"/>
-        <v>-0.11854766688039707</v>
-      </c>
-      <c r="AC28" s="26">
-        <f>AVERAGE(U28:AB28)</f>
-        <v>-5.7847241894337688E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B29" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29">
-        <f>E28-E27</f>
-        <v>0.71999999999999886</v>
-      </c>
-      <c r="F29">
-        <f t="shared" ref="F29:H29" si="12">F28-F27</f>
-        <v>0.62000000000000011</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="12"/>
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="12"/>
-        <v>0.77999999999999403</v>
-      </c>
-      <c r="N29">
-        <f>AVERAGE(E29:H29)</f>
-        <v>0.66999999999999826</v>
-      </c>
-    </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B30" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30">
-        <f>E26-E27</f>
-        <v>0.27999999999999936</v>
-      </c>
-      <c r="F30">
-        <f t="shared" ref="F30:H30" si="13">F26-F27</f>
-        <v>0.30000000000000071</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="13"/>
-        <v>0.32999999999999996</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="13"/>
-        <v>0.45999999999999375</v>
-      </c>
-      <c r="P30" s="26">
-        <f>AVERAGE(E30:H30)</f>
-        <v>0.34249999999999847</v>
-      </c>
-    </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B31" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31">
-        <f>E28-E26</f>
-        <v>0.4399999999999995</v>
-      </c>
-      <c r="F31">
-        <f t="shared" ref="F31:H31" si="14">F28-F26</f>
-        <v>0.3199999999999994</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="14"/>
-        <v>0.22999999999999998</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="14"/>
-        <v>0.32000000000000028</v>
-      </c>
-      <c r="O31" s="28">
-        <f>AVERAGE(E31:H31)</f>
-        <v>0.32749999999999979</v>
-      </c>
-    </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B34" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34">
-        <v>1.81</v>
-      </c>
-      <c r="F34">
-        <v>10.79</v>
-      </c>
-      <c r="G34">
-        <v>-10.47</v>
-      </c>
-      <c r="H34">
-        <v>26.76</v>
-      </c>
-    </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.25">
+        <v>-0.26171817630289984</v>
+      </c>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="26">
+        <f>AVERAGE(E32:L32)</f>
+        <v>0.11553019338711536</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35">
-        <v>1.24</v>
-      </c>
-      <c r="F35">
-        <v>10.3</v>
-      </c>
-      <c r="G35">
-        <v>-10.89</v>
-      </c>
-      <c r="H35">
-        <v>26.14</v>
-      </c>
-      <c r="AB35" s="26"/>
-      <c r="AC35" s="26"/>
-      <c r="AD35" s="26"/>
-      <c r="AE35" s="26"/>
-      <c r="AF35" s="26"/>
-      <c r="AG35" s="26"/>
-      <c r="AH35" s="26"/>
-      <c r="AI35" s="26"/>
-    </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="I35">
+        <v>8.14</v>
+      </c>
+      <c r="J35">
+        <v>23.91</v>
+      </c>
+      <c r="K35">
+        <v>-15.2</v>
+      </c>
+      <c r="L35">
+        <v>12.01</v>
+      </c>
+      <c r="M35">
+        <v>14.23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36">
-        <v>1.9</v>
-      </c>
-      <c r="F36">
-        <v>10.96</v>
-      </c>
-      <c r="G36">
-        <v>-10.3</v>
-      </c>
-      <c r="H36">
-        <v>26.99</v>
-      </c>
-    </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="I36">
+        <v>8.43</v>
+      </c>
+      <c r="J36">
+        <v>24.35</v>
+      </c>
+      <c r="K36">
+        <v>-15.03</v>
+      </c>
+      <c r="L36">
+        <v>12.39</v>
+      </c>
+      <c r="M36">
+        <v>14.62</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37">
-        <f>E36-E35</f>
-        <v>0.65999999999999992</v>
-      </c>
-      <c r="F37">
-        <f t="shared" ref="F37:H37" si="15">F36-F35</f>
-        <v>0.66000000000000014</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="15"/>
-        <v>0.58999999999999986</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="15"/>
-        <v>0.84999999999999787</v>
-      </c>
-      <c r="N37">
-        <f>AVERAGE(E37:H37)</f>
-        <v>0.6899999999999995</v>
-      </c>
-    </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="I37">
+        <v>7.98</v>
+      </c>
+      <c r="J37">
+        <v>23.9</v>
+      </c>
+      <c r="K37">
+        <v>-15.41</v>
+      </c>
+      <c r="L37">
+        <v>11.86</v>
+      </c>
+      <c r="M37">
+        <v>14.11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E38">
-        <f>E34-E35</f>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="F38">
-        <f t="shared" ref="F38:H38" si="16">F34-F35</f>
-        <v>0.48999999999999844</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="16"/>
-        <v>0.41999999999999993</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="16"/>
-        <v>0.62000000000000099</v>
+      <c r="I38">
+        <f>I35-I37</f>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="J38">
+        <f>J35-J37</f>
+        <v>1.0000000000001563E-2</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ref="K38:M38" si="9">K35-K37</f>
+        <v>0.21000000000000085</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="9"/>
+        <v>0.15000000000000036</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="9"/>
+        <v>0.12000000000000099</v>
       </c>
       <c r="P38" s="26">
-        <f>AVERAGE(E38:H38)</f>
-        <v>0.52499999999999991</v>
-      </c>
-      <c r="AB38" s="37"/>
-      <c r="AC38" s="37"/>
-      <c r="AD38" s="37"/>
-      <c r="AE38" s="37"/>
-      <c r="AF38" s="37"/>
-      <c r="AG38" s="37"/>
-      <c r="AH38" s="37"/>
-      <c r="AI38" s="37"/>
-    </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
+        <f>AVERAGE(I38:M38)</f>
+        <v>0.13000000000000078</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E39">
-        <f>E36-E34</f>
+      <c r="I39">
+        <f>I36-I35</f>
+        <v>0.28999999999999915</v>
+      </c>
+      <c r="J39">
+        <f>J36-J35</f>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ref="K39:M39" si="10">K36-K35</f>
+        <v>0.16999999999999993</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="10"/>
+        <v>0.38000000000000078</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="10"/>
+        <v>0.38999999999999879</v>
+      </c>
+      <c r="O39" s="29">
+        <f>AVERAGE(I39:M39)</f>
+        <v>0.33399999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B41" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I41">
+        <v>8.31</v>
+      </c>
+      <c r="J41">
+        <v>24.11</v>
+      </c>
+      <c r="K41">
+        <v>-15.04</v>
+      </c>
+      <c r="L41">
+        <v>12.19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B42" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42">
+        <f>I41-I37</f>
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ref="J42:M42" si="11">J41-J37</f>
+        <v>0.21000000000000085</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="11"/>
+        <v>0.37000000000000099</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="11"/>
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="P42">
+        <f>AVERAGE(I42:L42)</f>
+        <v>0.3100000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B43" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43">
+        <f>I36-I41</f>
+        <v>0.11999999999999922</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ref="J43:L43" si="12">J36-J41</f>
+        <v>0.24000000000000199</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="12"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="12"/>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="O43" s="29">
+        <f>AVERAGE(I43:L43)</f>
+        <v>0.14250000000000052</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I44" s="26">
+        <f>SmallCaps!F16*100</f>
+        <v>8.0481078998264344E-2</v>
+      </c>
+      <c r="J44" s="26">
+        <f>SmallCaps!G16*100</f>
+        <v>0.19252149651811651</v>
+      </c>
+      <c r="K44" s="26">
+        <f>SmallCaps!H16*100</f>
+        <v>0.18850918810826758</v>
+      </c>
+      <c r="L44" s="26">
+        <f>SmallCaps!I16*100</f>
+        <v>0.19094311298736055</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I45" s="22">
+        <f t="shared" ref="I45" si="13">I44-I43</f>
+        <v>-3.9518921001734875E-2</v>
+      </c>
+      <c r="J45" s="22">
+        <f t="shared" ref="J45" si="14">J44-J43</f>
+        <v>-4.7478503481885481E-2</v>
+      </c>
+      <c r="K45" s="22">
+        <f t="shared" ref="K45" si="15">K44-K43</f>
+        <v>0.1785091881082678</v>
+      </c>
+      <c r="L45" s="22">
+        <f t="shared" ref="L45" si="16">L44-L43</f>
+        <v>-9.0568870126405132E-3</v>
+      </c>
+      <c r="Q45" s="26">
+        <f>AVERAGE(I45:L45)</f>
+        <v>2.0613719153001732E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48">
+        <v>14.75</v>
+      </c>
+      <c r="F48">
+        <v>7.07</v>
+      </c>
+      <c r="G48">
+        <v>0.35</v>
+      </c>
+      <c r="H48">
+        <v>34.049999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B49" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49">
+        <v>14.47</v>
+      </c>
+      <c r="F49">
+        <v>6.77</v>
+      </c>
+      <c r="G49">
+        <v>0.02</v>
+      </c>
+      <c r="H49">
+        <v>33.590000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B50" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50">
+        <v>15.19</v>
+      </c>
+      <c r="F50">
+        <v>7.39</v>
+      </c>
+      <c r="G50">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H50">
+        <v>34.369999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B51" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51">
+        <f>E50-E49</f>
+        <v>0.71999999999999886</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ref="F51:H51" si="17">F50-F49</f>
+        <v>0.62000000000000011</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="17"/>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="17"/>
+        <v>0.77999999999999403</v>
+      </c>
+      <c r="N51">
+        <f>AVERAGE(E51:H51)</f>
+        <v>0.66999999999999826</v>
+      </c>
+    </row>
+    <row r="52" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B52" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52">
+        <f>E48-E49</f>
+        <v>0.27999999999999936</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ref="F52:H52" si="18">F48-F49</f>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="18"/>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="18"/>
+        <v>0.45999999999999375</v>
+      </c>
+      <c r="P52" s="26">
+        <f>AVERAGE(E52:H52)</f>
+        <v>0.34249999999999847</v>
+      </c>
+    </row>
+    <row r="53" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B53" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53">
+        <f>E50-E48</f>
+        <v>0.4399999999999995</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ref="F53:H53" si="19">F50-F48</f>
+        <v>0.3199999999999994</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="19"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="19"/>
+        <v>0.32000000000000028</v>
+      </c>
+      <c r="O53" s="28">
+        <f>AVERAGE(E53:H53)</f>
+        <v>0.32749999999999979</v>
+      </c>
+    </row>
+    <row r="56" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B56" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56">
+        <v>1.81</v>
+      </c>
+      <c r="F56">
+        <v>10.79</v>
+      </c>
+      <c r="G56">
+        <v>-10.47</v>
+      </c>
+      <c r="H56">
+        <v>26.76</v>
+      </c>
+    </row>
+    <row r="57" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B57" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57">
+        <v>1.24</v>
+      </c>
+      <c r="F57">
+        <v>10.3</v>
+      </c>
+      <c r="G57">
+        <v>-10.89</v>
+      </c>
+      <c r="H57">
+        <v>26.14</v>
+      </c>
+      <c r="AB57" s="26"/>
+      <c r="AC57" s="26"/>
+      <c r="AD57" s="26"/>
+      <c r="AE57" s="26"/>
+      <c r="AF57" s="26"/>
+      <c r="AG57" s="26"/>
+      <c r="AH57" s="26"/>
+      <c r="AI57" s="26"/>
+    </row>
+    <row r="58" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B58" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58">
+        <v>1.9</v>
+      </c>
+      <c r="F58">
+        <v>10.96</v>
+      </c>
+      <c r="G58">
+        <v>-10.3</v>
+      </c>
+      <c r="H58">
+        <v>26.99</v>
+      </c>
+    </row>
+    <row r="59" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B59" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59">
+        <f>E58-E57</f>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ref="F59:H59" si="20">F58-F57</f>
+        <v>0.66000000000000014</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="20"/>
+        <v>0.58999999999999986</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="20"/>
+        <v>0.84999999999999787</v>
+      </c>
+      <c r="N59">
+        <f>AVERAGE(E59:H59)</f>
+        <v>0.6899999999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B60" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60">
+        <f>E56-E57</f>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ref="F60:H60" si="21">F56-F57</f>
+        <v>0.48999999999999844</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="21"/>
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="21"/>
+        <v>0.62000000000000099</v>
+      </c>
+      <c r="P60" s="26">
+        <f>AVERAGE(E60:H60)</f>
+        <v>0.52499999999999991</v>
+      </c>
+      <c r="AB60" s="37"/>
+      <c r="AC60" s="37"/>
+      <c r="AD60" s="37"/>
+      <c r="AE60" s="37"/>
+      <c r="AF60" s="37"/>
+      <c r="AG60" s="37"/>
+      <c r="AH60" s="37"/>
+      <c r="AI60" s="37"/>
+    </row>
+    <row r="61" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B61" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61">
+        <f>E58-E56</f>
         <v>8.9999999999999858E-2</v>
       </c>
-      <c r="F39">
-        <f t="shared" ref="F39:H39" si="17">F36-F34</f>
+      <c r="F61">
+        <f t="shared" ref="F61:H61" si="22">F58-F56</f>
         <v>0.17000000000000171</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="17"/>
+      <c r="G61">
+        <f t="shared" si="22"/>
         <v>0.16999999999999993</v>
       </c>
-      <c r="H39">
-        <f t="shared" si="17"/>
+      <c r="H61">
+        <f t="shared" si="22"/>
         <v>0.22999999999999687</v>
       </c>
-      <c r="O39" s="28">
-        <f>AVERAGE(E39:H39)</f>
+      <c r="O61" s="28">
+        <f>AVERAGE(E61:H61)</f>
         <v>0.16499999999999959</v>
       </c>
-      <c r="AB39" s="26"/>
-      <c r="AC39" s="26"/>
-      <c r="AD39" s="26"/>
-      <c r="AE39" s="26"/>
-      <c r="AF39" s="26"/>
-      <c r="AG39" s="26"/>
-      <c r="AH39" s="26"/>
-      <c r="AI39" s="26"/>
-    </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="AB40" s="26"/>
-      <c r="AC40" s="26"/>
-      <c r="AD40" s="26"/>
-      <c r="AE40" s="26"/>
-      <c r="AF40" s="26"/>
-      <c r="AG40" s="26"/>
-      <c r="AH40" s="26"/>
-      <c r="AI40" s="26"/>
-    </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="I42">
-        <v>8.14</v>
-      </c>
-      <c r="J42">
-        <v>23.91</v>
-      </c>
-      <c r="K42">
-        <v>-15.2</v>
-      </c>
-      <c r="L42">
-        <v>12.01</v>
-      </c>
-      <c r="M42">
-        <v>14.23</v>
-      </c>
-    </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B43" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="I43">
-        <v>8.43</v>
-      </c>
-      <c r="J43">
-        <v>24.35</v>
-      </c>
-      <c r="K43">
-        <v>-15.03</v>
-      </c>
-      <c r="L43">
-        <v>12.39</v>
-      </c>
-      <c r="M43">
-        <v>14.62</v>
-      </c>
-    </row>
-    <row r="44" spans="2:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="I44">
-        <v>7.98</v>
-      </c>
-      <c r="J44">
-        <v>23.9</v>
-      </c>
-      <c r="K44">
-        <v>-15.41</v>
-      </c>
-      <c r="L44">
-        <v>11.86</v>
-      </c>
-      <c r="M44">
-        <v>14.11</v>
-      </c>
-    </row>
-    <row r="45" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B45" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I45">
-        <f>I42-I44</f>
-        <v>0.16000000000000014</v>
-      </c>
-      <c r="J45">
-        <f>J42-J44</f>
-        <v>1.0000000000001563E-2</v>
-      </c>
-      <c r="K45">
-        <f t="shared" ref="K45:M45" si="18">K42-K44</f>
-        <v>0.21000000000000085</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="18"/>
-        <v>0.15000000000000036</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="18"/>
-        <v>0.12000000000000099</v>
-      </c>
-      <c r="P45" s="26">
-        <f>AVERAGE(I45:M45)</f>
-        <v>0.13000000000000078</v>
-      </c>
-    </row>
-    <row r="46" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B46" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="I46">
-        <f>I43-I42</f>
-        <v>0.28999999999999915</v>
-      </c>
-      <c r="J46">
-        <f>J43-J42</f>
-        <v>0.44000000000000128</v>
-      </c>
-      <c r="K46">
-        <f t="shared" ref="K46:M46" si="19">K43-K42</f>
-        <v>0.16999999999999993</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="19"/>
-        <v>0.38000000000000078</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="19"/>
-        <v>0.38999999999999879</v>
-      </c>
-      <c r="O46" s="29">
-        <f>AVERAGE(I46:M46)</f>
-        <v>0.33399999999999996</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="AB61" s="26"/>
+      <c r="AC61" s="26"/>
+      <c r="AD61" s="26"/>
+      <c r="AE61" s="26"/>
+      <c r="AF61" s="26"/>
+      <c r="AG61" s="26"/>
+      <c r="AH61" s="26"/>
+      <c r="AI61" s="26"/>
+    </row>
+    <row r="62" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AB62" s="26"/>
+      <c r="AC62" s="26"/>
+      <c r="AD62" s="26"/>
+      <c r="AE62" s="26"/>
+      <c r="AF62" s="26"/>
+      <c r="AG62" s="26"/>
+      <c r="AH62" s="26"/>
+      <c r="AI62" s="26"/>
+    </row>
+    <row r="64" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -6636,7 +7411,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -6644,42 +7419,139 @@
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
-      <c r="Q71" s="26"/>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="1"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="1"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B84" s="1"/>
+      <c r="Q84" s="26"/>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B85" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E17:L17">
+  <conditionalFormatting sqref="E7:M8">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:L19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:M9">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:L20">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:L30">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:L43">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6691,19 +7563,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:M7">
+  <conditionalFormatting sqref="E32:L32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U28:AB28">
+  <conditionalFormatting sqref="I45:L45">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/NorthernTrust/NT-KostenBepaling.xlsx
+++ b/NorthernTrust/NT-KostenBepaling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/NorthernTrust/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1590" documentId="13_ncr:1_{0BEEB54A-A1B5-4808-9253-8C962E6DCC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6D03689-7EA6-4571-B98D-16C4AC93BB2D}"/>
+  <xr:revisionPtr revIDLastSave="1708" documentId="13_ncr:1_{0BEEB54A-A1B5-4808-9253-8C962E6DCC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F08DB18A-CC9B-43D5-8293-1F71651A8E6A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aannames" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="Tracking Difference" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -159,6 +158,62 @@
         </r>
       </text>
     </comment>
+    <comment ref="D36" authorId="1" shapeId="0" xr:uid="{6CDAE738-D84F-408B-B831-834182A57F92}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>With fund data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E36" authorId="1" shapeId="0" xr:uid="{D049A101-BCD5-450D-9CEE-A643E95D6971}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>With share class data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D46" authorId="1" shapeId="0" xr:uid="{26B7AC29-9528-4E1C-BBD6-3A3876489641}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>With fund data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E46" authorId="1" shapeId="0" xr:uid="{A5DE0099-E4FB-428E-AA5E-0C6C83E1A747}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>With share class data</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -167,6 +222,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gerben</author>
+    <author>Gerben van Loon</author>
   </authors>
   <commentList>
     <comment ref="B11" authorId="0" shapeId="0" xr:uid="{695149D2-4BCB-4332-A25D-3EB39C494959}">
@@ -214,6 +270,34 @@
           </rPr>
           <t xml:space="preserve">
 https://www.assetmanagement.hsbc.co.uk/en/intermediary/funds/ie00b4x9l533?t=6</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D32" authorId="1" shapeId="0" xr:uid="{AC387808-1D93-4CCA-8824-5B163DE2C7EC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>With share class data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D42" authorId="1" shapeId="0" xr:uid="{7BD03D6A-59F9-44E1-88E6-F8D217D90ACF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>With share class data</t>
         </r>
       </text>
     </comment>
@@ -273,6 +357,20 @@
           </rPr>
           <t xml:space="preserve">
 Pagina 109 (2020)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D34" authorId="1" shapeId="0" xr:uid="{282886BF-DD6F-4709-AE0C-D02E23FB82E8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>With share class data</t>
         </r>
       </text>
     </comment>
@@ -396,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="1" shapeId="0" xr:uid="{43F0D582-9D09-41CC-BA24-2F8278F58333}">
+    <comment ref="B17" authorId="1" shapeId="0" xr:uid="{43F0D582-9D09-41CC-BA24-2F8278F58333}">
       <text>
         <r>
           <rPr>
@@ -421,7 +519,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{491C301F-C58A-4556-8DFB-A3897F0CAD8E}">
+    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{491C301F-C58A-4556-8DFB-A3897F0CAD8E}">
       <text>
         <r>
           <rPr>
@@ -447,7 +545,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="1" shapeId="0" xr:uid="{BE0847D9-7399-44F8-B6C6-CDD8B96BAFFC}">
+    <comment ref="B32" authorId="1" shapeId="0" xr:uid="{BE0847D9-7399-44F8-B6C6-CDD8B96BAFFC}">
       <text>
         <r>
           <rPr>
@@ -461,7 +559,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{44AC9BF2-D406-4BD8-8416-B5B9C5DDFA7D}">
+    <comment ref="B41" authorId="0" shapeId="0" xr:uid="{44AC9BF2-D406-4BD8-8416-B5B9C5DDFA7D}">
       <text>
         <r>
           <rPr>
@@ -485,7 +583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B41" authorId="1" shapeId="0" xr:uid="{0E9D89F7-FAEA-4CEA-A5DE-38E66B3834A6}">
+    <comment ref="B47" authorId="1" shapeId="0" xr:uid="{0E9D89F7-FAEA-4CEA-A5DE-38E66B3834A6}">
       <text>
         <r>
           <rPr>
@@ -504,7 +602,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="146">
   <si>
     <t>Transaction costs and interest expenses are excluded from the calculation.</t>
   </si>
@@ -862,9 +960,6 @@
     <t>2016-2023</t>
   </si>
   <si>
-    <t>Costs (I class)</t>
-  </si>
-  <si>
     <t>TD gap</t>
   </si>
   <si>
@@ -907,7 +1002,46 @@
     <t>2020-2023</t>
   </si>
   <si>
-    <t>Cost range: 0,134% - 0,174%</t>
+    <t>Estimated TD I Class</t>
+  </si>
+  <si>
+    <t>GAP</t>
+  </si>
+  <si>
+    <t>Estimated TD A Class</t>
+  </si>
+  <si>
+    <t>Cost range: 0,183% - 0,264%</t>
+  </si>
+  <si>
+    <t>Cost range: 0,133% - 0,264%</t>
+  </si>
+  <si>
+    <t>A Class</t>
+  </si>
+  <si>
+    <t>I Class</t>
+  </si>
+  <si>
+    <t>Cost range: 0,325% - 0,435%</t>
+  </si>
+  <si>
+    <t>G Class</t>
+  </si>
+  <si>
+    <t>Estimated TD G Class</t>
+  </si>
+  <si>
+    <t>no TD data, taking A class for now</t>
+  </si>
+  <si>
+    <t>Cost range: 0,225% - 0,335%</t>
+  </si>
+  <si>
+    <t>A class</t>
+  </si>
+  <si>
+    <t>Cost range: 0,225% - 0,447%</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1181,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1090,7 +1224,6 @@
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1384,9 +1517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926ECACD-21DA-4904-B85E-A64A90D22818}">
   <dimension ref="B2:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1427,15 +1558,15 @@
       <c r="B8" s="8"/>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="38" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
+      <c r="B10" s="38"/>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
+      <c r="B11" s="38"/>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
@@ -1506,9 +1637,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O50"/>
+  <dimension ref="B2:O54"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1936,7 +2067,7 @@
     </row>
     <row r="16" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C16" s="3">
         <f>C15/C6</f>
@@ -1992,7 +2123,7 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" s="3">
         <v>2.9999999999999997E-4</v>
@@ -2024,7 +2155,7 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2044,7 +2175,9 @@
       <c r="J19" s="3">
         <v>1E-3</v>
       </c>
-      <c r="K19" s="3"/>
+      <c r="K19" s="3">
+        <v>1E-3</v>
+      </c>
       <c r="L19" s="4"/>
       <c r="M19" s="6"/>
     </row>
@@ -2228,7 +2361,7 @@
         <v>41</v>
       </c>
       <c r="C28" s="6">
-        <f>AVERAGE('Tracking Difference'!E17:L17)/100</f>
+        <f>AVERAGE('Tracking Difference'!E19:L19)/100</f>
         <v>1.4250000000000029E-3</v>
       </c>
       <c r="D28" t="s">
@@ -2258,7 +2391,7 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C30" s="6">
         <f>C28-C27</f>
@@ -2276,10 +2409,10 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C31" s="6">
-        <f>C30-C37</f>
+        <f>C30-C49</f>
         <v>3.9472241894337675E-4</v>
       </c>
       <c r="E31" s="4"/>
@@ -2304,7 +2437,7 @@
       <c r="L32" s="4"/>
       <c r="M32" s="5"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -2315,16 +2448,7 @@
       <c r="L33" s="4"/>
       <c r="M33" s="5"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>123</v>
-      </c>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -2335,196 +2459,273 @@
       <c r="L34" s="4"/>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="5"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="C37" s="6">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="5">
-        <f>AVERAGE(I10:J10)</f>
-        <v>1.6043325583258241E-4</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="5"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="C38" s="5">
+        <f>AVERAGE(H10:J10)</f>
+        <v>1.5023655481273738E-4</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C39" s="6">
         <f>AVERAGE(0.42%,1.05%)*2.5%</f>
         <v>1.8375000000000002E-4</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="5"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="E39" s="4"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C40" s="6">
         <v>0</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="5"/>
-      <c r="O38" s="3"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="5">
-        <f>SUM(C35:C38)</f>
-        <v>1.3441832558325824E-3</v>
-      </c>
-      <c r="D39" s="4">
-        <f>C39+C31</f>
-        <v>1.7389056747759593E-3</v>
-      </c>
-      <c r="L39" s="4"/>
-      <c r="M39" s="5"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="5"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>133</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="5"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C42" s="6"/>
+      <c r="C41" s="5">
+        <f>SUM(C37:C40)</f>
+        <v>1.8339865548127375E-3</v>
+      </c>
+      <c r="D41" s="4">
+        <f>C37++C38+C39+C31</f>
+        <v>2.2287089737561142E-3</v>
+      </c>
+      <c r="E41" s="5">
+        <f>C37+C38-('Tracking Difference'!Q9/100)</f>
+        <v>2.6400672510831589E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="5"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C43" s="6"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>135</v>
+      </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C45" s="6"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="6"/>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="24"/>
-      <c r="D50" s="6"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="5"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="5">
+        <f>C38</f>
+        <v>1.5023655481273738E-4</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="5"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="6">
+        <f>AVERAGE(0.42%,1.05%)*2.5%</f>
+        <v>1.8375000000000002E-4</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="5"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="5"/>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="5">
+        <f>SUM(C47:C50)</f>
+        <v>1.3339865548127375E-3</v>
+      </c>
+      <c r="D51" s="4">
+        <f>C47++C48+C49+C31</f>
+        <v>1.7287089737561142E-3</v>
+      </c>
+      <c r="E51" s="5">
+        <f>C47+C48-('Tracking Difference'!Q15/100)</f>
+        <v>2.638439556594525E-3</v>
+      </c>
+      <c r="L51" s="4"/>
+      <c r="M51" s="5"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="5"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="5"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C54" s="6"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2535,9 +2736,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5B4C98-CE28-4015-A5EF-F840D4E9DB1C}">
-  <dimension ref="B2:O45"/>
+  <dimension ref="B2:O49"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2781,7 +2982,7 @@
         <v>203782</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ref="D11:J11" si="1">D13-D5</f>
+        <f t="shared" ref="D11:H11" si="1">D13-D5</f>
         <v>565933</v>
       </c>
       <c r="E11" s="2">
@@ -2895,7 +3096,7 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="3">
         <f>C13/C6</f>
@@ -2956,7 +3157,7 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" s="3">
         <v>2.8E-3</v>
@@ -2989,7 +3190,7 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -3122,7 +3323,7 @@
         <v>41</v>
       </c>
       <c r="C23" s="6">
-        <f>AVERAGE('Tracking Difference'!E30:L30)/100</f>
+        <f>AVERAGE('Tracking Difference'!E34:L34)/100</f>
         <v>1.6375000000000018E-3</v>
       </c>
       <c r="D23" t="s">
@@ -3134,26 +3335,26 @@
     </row>
     <row r="25" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C25" s="6">
         <f>C23-C22</f>
         <v>-1.1553019338711532E-3</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C26" s="6">
         <f>C25-C35</f>
         <v>-1.3390519338711533E-3</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3170,18 +3371,31 @@
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E31" s="4"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
     </row>
     <row r="32" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="4"/>
+      <c r="D32" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
@@ -3204,8 +3418,8 @@
         <v>1</v>
       </c>
       <c r="C34" s="5">
-        <f>AVERAGE(I8:J8)</f>
-        <v>6.0063592268553775E-4</v>
+        <f>AVERAGE(H8:J8)</f>
+        <v>5.673698469157068E-4</v>
       </c>
       <c r="E34" s="4"/>
     </row>
@@ -3235,9 +3449,12 @@
       </c>
       <c r="C37" s="5">
         <f>SUM(C33:C36)</f>
-        <v>3.2843859226855377E-3</v>
-      </c>
-      <c r="D37" s="4"/>
+        <v>3.2511198469157066E-3</v>
+      </c>
+      <c r="D37" s="4">
+        <f>C33+C34-('Tracking Difference'!Q30/100)</f>
+        <v>4.3495679130445535E-3</v>
+      </c>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
       <c r="H37" s="32"/>
@@ -3255,6 +3472,9 @@
       <c r="K38" s="32"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>139</v>
+      </c>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -3280,18 +3500,98 @@
       <c r="K41" s="32"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
+      <c r="B42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="6">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="5"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="5">
+        <f>C34</f>
+        <v>5.673698469157068E-4</v>
+      </c>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C45" s="24"/>
+      <c r="B45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="6">
+        <f>AVERAGE(0.42%,1.05%)*2.5%</f>
+        <v>1.8375000000000002E-4</v>
+      </c>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="5">
+        <f>SUM(C43:C46)</f>
+        <v>2.2511198469157066E-3</v>
+      </c>
+      <c r="D47" s="4">
+        <f>C43+C44-('Tracking Difference'!Q30/100)</f>
+        <v>3.3495679130445531E-3</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E48" s="4"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3304,7 +3604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9123B064-D487-424B-955E-970CD2CDF897}">
   <dimension ref="B2:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3645,7 +3945,7 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -3688,7 +3988,7 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -3799,7 +4099,7 @@
         <v>1.8218311580429697E-3</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
@@ -3807,11 +4107,11 @@
         <v>41</v>
       </c>
       <c r="C27" s="6">
-        <f>AVERAGE('Tracking Difference'!I43:L43)/100</f>
+        <f>AVERAGE('Tracking Difference'!I49:L49)/100</f>
         <v>1.4250000000000053E-3</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -3820,43 +4120,57 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C29" s="6">
         <f>C27-C26</f>
         <v>-3.968311580429644E-4</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" s="6">
         <f>C29-C39</f>
-        <v>-3.2896581134130081E-3</v>
+        <v>-3.3314995621267236E-3</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="C34" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>106</v>
       </c>
@@ -3864,17 +4178,17 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="5">
-        <f>AVERAGE(I10:J10)</f>
-        <v>4.090769553700439E-4</v>
+        <f>AVERAGE(H10:J10)</f>
+        <v>4.5091840408375937E-4</v>
       </c>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>109</v>
       </c>
@@ -3884,7 +4198,7 @@
       </c>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>110</v>
       </c>
@@ -3894,26 +4208,32 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>111</v>
       </c>
       <c r="C39" s="5">
         <f>SUM(C35:C38)</f>
-        <v>2.8928269553700437E-3</v>
-      </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+        <v>2.9346684040837592E-3</v>
+      </c>
+      <c r="D39" s="4">
+        <f>C35+C36-('Tracking Difference'!Q45/100)</f>
+        <v>4.4724913196528548E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="12"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="36"/>
     </row>
   </sheetData>
@@ -4229,7 +4549,7 @@
         <v>81</v>
       </c>
       <c r="C18" s="3">
-        <f>'Tracking Difference'!O53/100</f>
+        <f>'Tracking Difference'!O59/100</f>
         <v>3.274999999999998E-3</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -4657,7 +4977,7 @@
         <v>81</v>
       </c>
       <c r="C18" s="3">
-        <f>'Tracking Difference'!O61/100</f>
+        <f>'Tracking Difference'!O67/100</f>
         <v>1.6499999999999959E-3</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -5705,10 +6025,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F528616F-4365-4E03-AA99-F5C2282C78C2}">
-  <dimension ref="B2:AI85"/>
+  <dimension ref="B2:AI91"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5760,13 +6080,16 @@
       <c r="P2" s="18" t="s">
         <v>42</v>
       </c>
+      <c r="Q2" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="S2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -5985,7 +6308,7 @@
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -6092,7 +6415,7 @@
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I11">
         <v>8.32</v>
@@ -6185,336 +6508,312 @@
       </c>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="O14" s="26"/>
+      <c r="B14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="19">
+        <f>(World!F19+World!F10)*100</f>
+        <v>0.12544678325229774</v>
+      </c>
+      <c r="J14" s="19">
+        <f>(World!G19+World!G10)*100</f>
+        <v>0.16538074941298422</v>
+      </c>
+      <c r="K14" s="19">
+        <f>(World!H19+World!H10)*100</f>
+        <v>0.13298431527730473</v>
+      </c>
+      <c r="L14" s="19">
+        <f>(World!I19+World!I10)*100</f>
+        <v>0.11770243967030612</v>
+      </c>
+      <c r="M14" s="19">
+        <f>(World!J19+World!J10)*100</f>
+        <v>0.11438421149621036</v>
+      </c>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15">
-        <v>10.54</v>
-      </c>
-      <c r="F15">
-        <v>8.32</v>
-      </c>
-      <c r="G15">
-        <v>-3.21</v>
-      </c>
-      <c r="H15">
-        <v>31.02</v>
+      <c r="B15" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="I15" s="19">
-        <v>8.2899999999999991</v>
+        <f>I14-I13</f>
+        <v>-8.4553216747701332E-2</v>
       </c>
       <c r="J15" s="19">
-        <v>31.9</v>
+        <f t="shared" ref="J15:M15" si="3">J14-J13</f>
+        <v>1.5380749412985645E-2</v>
       </c>
       <c r="K15" s="19">
-        <v>-13.6</v>
+        <f t="shared" si="3"/>
+        <v>8.2984315277304016E-2</v>
       </c>
       <c r="L15" s="19">
-        <v>20.7</v>
-      </c>
-      <c r="M15" s="19"/>
-      <c r="O15" s="26"/>
+        <f t="shared" si="3"/>
+        <v>-4.229756032969402E-2</v>
+      </c>
+      <c r="M15" s="19">
+        <f t="shared" si="3"/>
+        <v>-0.71561578850378793</v>
+      </c>
+      <c r="Q15" s="26">
+        <f>AVERAGE(I15:M15)</f>
+        <v>-0.14882030017817874</v>
+      </c>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="26">
-        <f>E15-E5</f>
-        <v>0.46999999999999886</v>
-      </c>
-      <c r="F16" s="26">
-        <f>F15-F5</f>
-        <v>0.37000000000000011</v>
-      </c>
-      <c r="G16" s="26">
-        <f>G15-G5</f>
-        <v>0.43999999999999995</v>
-      </c>
-      <c r="H16" s="26">
-        <f>H15-H5</f>
-        <v>0.57999999999999829</v>
-      </c>
-      <c r="I16" s="26">
-        <f>I15-I5</f>
-        <v>0.30999999999999872</v>
-      </c>
-      <c r="J16" s="26">
-        <f>J15-J5</f>
-        <v>0.47999999999999687</v>
-      </c>
-      <c r="K16" s="26">
-        <f>K15-K5</f>
-        <v>0.41000000000000014</v>
-      </c>
-      <c r="L16" s="26">
-        <f>L15-L5</f>
-        <v>0.43999999999999773</v>
-      </c>
+      <c r="B16" s="18"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
       <c r="M16" s="19"/>
       <c r="O16" s="26"/>
-      <c r="P16" s="26">
-        <f>AVERAGE(E16:L16)</f>
-        <v>0.43749999999999883</v>
-      </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17">
+        <v>10.54</v>
+      </c>
+      <c r="F17">
+        <v>8.32</v>
+      </c>
+      <c r="G17">
+        <v>-3.21</v>
+      </c>
+      <c r="H17">
+        <v>31.02</v>
+      </c>
+      <c r="I17" s="19">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="J17" s="19">
+        <v>31.9</v>
+      </c>
+      <c r="K17" s="19">
+        <v>-13.6</v>
+      </c>
+      <c r="L17" s="19">
+        <v>20.7</v>
+      </c>
+      <c r="M17" s="19"/>
+      <c r="O17" s="26"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="26">
+        <f t="shared" ref="E18:L18" si="4">E17-E5</f>
+        <v>0.46999999999999886</v>
+      </c>
+      <c r="F18" s="26">
+        <f t="shared" si="4"/>
+        <v>0.37000000000000011</v>
+      </c>
+      <c r="G18" s="26">
+        <f t="shared" si="4"/>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="H18" s="26">
+        <f t="shared" si="4"/>
+        <v>0.57999999999999829</v>
+      </c>
+      <c r="I18" s="26">
+        <f t="shared" si="4"/>
+        <v>0.30999999999999872</v>
+      </c>
+      <c r="J18" s="26">
+        <f t="shared" si="4"/>
+        <v>0.47999999999999687</v>
+      </c>
+      <c r="K18" s="26">
+        <f t="shared" si="4"/>
+        <v>0.41000000000000014</v>
+      </c>
+      <c r="L18" s="26">
+        <f t="shared" si="4"/>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="M18" s="19"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26">
+        <f>AVERAGE(E18:L18)</f>
+        <v>0.43749999999999883</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="26">
-        <f>E4-E15</f>
+      <c r="E19" s="26">
+        <f t="shared" ref="E19:L19" si="5">E4-E17</f>
         <v>0.18000000000000149</v>
       </c>
-      <c r="F17" s="26">
-        <f>F4-F15</f>
+      <c r="F19" s="26">
+        <f t="shared" si="5"/>
         <v>0.21999999999999886</v>
       </c>
-      <c r="G17" s="26">
-        <f>G4-G15</f>
+      <c r="G19" s="26">
+        <f t="shared" si="5"/>
         <v>8.9999999999999858E-2</v>
       </c>
-      <c r="H17" s="26">
-        <f>H4-H15</f>
+      <c r="H19" s="26">
+        <f t="shared" si="5"/>
         <v>0.15000000000000213</v>
       </c>
-      <c r="I17" s="26">
-        <f>I4-I15</f>
+      <c r="I19" s="26">
+        <f t="shared" si="5"/>
         <v>0.24000000000000021</v>
       </c>
-      <c r="J17" s="26">
-        <f>J4-J15</f>
+      <c r="J19" s="26">
+        <f t="shared" si="5"/>
         <v>8.9999999999999858E-2</v>
       </c>
-      <c r="K17" s="26">
-        <f>K4-K15</f>
+      <c r="K19" s="26">
+        <f t="shared" si="5"/>
         <v>9.9999999999997868E-3</v>
       </c>
-      <c r="L17" s="26">
-        <f>L4-L15</f>
+      <c r="L19" s="26">
+        <f t="shared" si="5"/>
         <v>0.16000000000000014</v>
       </c>
-      <c r="M17" s="19"/>
-      <c r="O17" s="29">
-        <f>AVERAGE(E17:L17)</f>
+      <c r="M19" s="19"/>
+      <c r="O19" s="29">
+        <f>AVERAGE(E19:L19)</f>
         <v>0.14250000000000029</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="26">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="26">
         <f>World!C16*100</f>
         <v>2.6266407285764366E-2</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F20" s="26">
         <f>World!D16*100</f>
         <v>2.8077493451108815E-2</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G20" s="26">
         <f>World!E16*100</f>
         <v>0.12805674672750267</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H20" s="26">
         <f>World!F16*100</f>
         <v>0.12210870754241522</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I20" s="26">
         <f>World!G16*100</f>
         <v>0.13943631119150182</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J20" s="26">
         <f>World!H16*100</f>
         <v>0.10148625522145281</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K20" s="26">
         <f>World!I16*100</f>
         <v>9.0337810305952074E-2</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L20" s="26">
         <f>World!J16*100</f>
         <v>4.1452333119603071E-2</v>
       </c>
-      <c r="M18" s="19"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="M20" s="19"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E19" s="26">
-        <f>E18-E17</f>
+      <c r="E21" s="26">
+        <f>E20-E19</f>
         <v>-0.15373359271423712</v>
       </c>
-      <c r="F19" s="26">
-        <f t="shared" ref="F19:L19" si="3">F18-F17</f>
+      <c r="F21" s="26">
+        <f t="shared" ref="F21:L21" si="6">F20-F19</f>
         <v>-0.19192250654889004</v>
       </c>
-      <c r="G19" s="26">
-        <f t="shared" si="3"/>
+      <c r="G21" s="26">
+        <f t="shared" si="6"/>
         <v>3.805674672750281E-2</v>
       </c>
-      <c r="H19" s="26">
-        <f t="shared" si="3"/>
+      <c r="H21" s="26">
+        <f t="shared" si="6"/>
         <v>-2.7891292457586911E-2</v>
       </c>
-      <c r="I19" s="26">
-        <f t="shared" si="3"/>
+      <c r="I21" s="26">
+        <f t="shared" si="6"/>
         <v>-0.10056368880849839</v>
       </c>
-      <c r="J19" s="26">
-        <f t="shared" si="3"/>
+      <c r="J21" s="26">
+        <f t="shared" si="6"/>
         <v>1.1486255221452954E-2</v>
       </c>
-      <c r="K19" s="26">
-        <f t="shared" si="3"/>
+      <c r="K21" s="26">
+        <f t="shared" si="6"/>
         <v>8.0337810305952287E-2</v>
       </c>
-      <c r="L19" s="26">
-        <f t="shared" si="3"/>
+      <c r="L21" s="26">
+        <f t="shared" si="6"/>
         <v>-0.11854766688039707</v>
       </c>
-      <c r="M19" s="19"/>
-      <c r="O19" s="26"/>
-      <c r="Q19" s="26">
-        <f>AVERAGE(E19:L19)</f>
+      <c r="M21" s="19"/>
+      <c r="O21" s="26"/>
+      <c r="Q21" s="26">
+        <f>AVERAGE(E21:L21)</f>
         <v>-5.7847241894337688E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="19"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
-    </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22">
-        <v>12.94</v>
-      </c>
-      <c r="F22" s="22">
-        <v>21.63</v>
-      </c>
-      <c r="G22" s="22">
-        <v>-10.75</v>
-      </c>
-      <c r="H22" s="22">
-        <v>20.82</v>
-      </c>
-      <c r="I22" s="22">
-        <v>10.26</v>
-      </c>
-      <c r="J22" s="22">
-        <v>3.81</v>
-      </c>
-      <c r="K22" s="22">
-        <v>-15.57</v>
-      </c>
-      <c r="L22" s="22">
-        <v>5.57</v>
-      </c>
-      <c r="M22" s="22">
-        <v>15.02</v>
-      </c>
-      <c r="N22" s="22"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="22"/>
+      <c r="B22" s="18"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="19"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="22">
-        <v>12.03</v>
-      </c>
-      <c r="D23" s="22">
-        <v>-3.64</v>
-      </c>
-      <c r="E23" s="22">
-        <v>13.57</v>
-      </c>
-      <c r="F23" s="22">
-        <v>21.71</v>
-      </c>
-      <c r="G23" s="22">
-        <v>-10.25</v>
-      </c>
-      <c r="H23" s="22">
-        <v>21.08</v>
-      </c>
-      <c r="I23" s="22">
-        <v>10.72</v>
-      </c>
-      <c r="J23" s="22">
-        <v>4.07</v>
-      </c>
-      <c r="K23" s="22">
-        <v>-15.23</v>
-      </c>
-      <c r="L23" s="22">
-        <v>6.3</v>
-      </c>
-      <c r="M23" s="22">
-        <v>15.54</v>
-      </c>
-      <c r="N23" s="22"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="22"/>
+      <c r="B23" s="18"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="21" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22">
-        <v>13.14</v>
+        <v>12.94</v>
       </c>
       <c r="F24" s="22">
-        <v>21.3</v>
+        <v>21.63</v>
       </c>
       <c r="G24" s="22">
-        <v>-10.6</v>
+        <v>-10.75</v>
       </c>
       <c r="H24" s="22">
-        <v>20.61</v>
+        <v>20.82</v>
       </c>
       <c r="I24" s="22">
-        <v>10.37</v>
+        <v>10.26</v>
       </c>
       <c r="J24" s="22">
-        <v>3.74</v>
+        <v>3.81</v>
       </c>
       <c r="K24" s="22">
-        <v>-15.59</v>
+        <v>-15.57</v>
       </c>
       <c r="L24" s="22">
-        <v>5.89</v>
+        <v>5.57</v>
       </c>
       <c r="M24" s="22">
-        <v>14.95</v>
+        <v>15.02</v>
       </c>
       <c r="N24" s="22"/>
       <c r="O24" s="20"/>
@@ -6522,558 +6821,662 @@
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+        <v>43</v>
+      </c>
+      <c r="C25" s="22">
+        <v>12.03</v>
+      </c>
+      <c r="D25" s="22">
+        <v>-3.64</v>
+      </c>
       <c r="E25" s="22">
-        <f t="shared" ref="E25:M25" si="4">E22-E24</f>
-        <v>-0.20000000000000107</v>
+        <v>13.57</v>
       </c>
       <c r="F25" s="22">
-        <f t="shared" si="4"/>
-        <v>0.32999999999999829</v>
+        <v>21.71</v>
       </c>
       <c r="G25" s="22">
-        <f t="shared" si="4"/>
-        <v>-0.15000000000000036</v>
+        <v>-10.25</v>
       </c>
       <c r="H25" s="22">
-        <f t="shared" si="4"/>
-        <v>0.21000000000000085</v>
+        <v>21.08</v>
       </c>
       <c r="I25" s="22">
-        <f t="shared" si="4"/>
-        <v>-0.10999999999999943</v>
+        <v>10.72</v>
       </c>
       <c r="J25" s="22">
-        <f t="shared" si="4"/>
-        <v>6.999999999999984E-2</v>
+        <v>4.07</v>
       </c>
       <c r="K25" s="22">
-        <f t="shared" si="4"/>
-        <v>1.9999999999999574E-2</v>
+        <v>-15.23</v>
       </c>
       <c r="L25" s="22">
-        <f t="shared" si="4"/>
-        <v>-0.3199999999999994</v>
+        <v>6.3</v>
       </c>
       <c r="M25" s="22">
-        <f t="shared" si="4"/>
-        <v>7.0000000000000284E-2</v>
+        <v>15.54</v>
       </c>
       <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22">
-        <f>AVERAGE(E25:M25)</f>
-        <v>-8.888888888889045E-3</v>
-      </c>
+      <c r="O25" s="20"/>
+      <c r="P25" s="22"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22">
-        <f t="shared" ref="E26:M26" si="5">E23-E22</f>
-        <v>0.63000000000000078</v>
+        <v>13.14</v>
       </c>
       <c r="F26" s="22">
-        <f t="shared" si="5"/>
-        <v>8.0000000000001847E-2</v>
+        <v>21.3</v>
       </c>
       <c r="G26" s="22">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>-10.6</v>
       </c>
       <c r="H26" s="22">
-        <f t="shared" si="5"/>
-        <v>0.25999999999999801</v>
+        <v>20.61</v>
       </c>
       <c r="I26" s="22">
-        <f t="shared" si="5"/>
-        <v>0.46000000000000085</v>
+        <v>10.37</v>
       </c>
       <c r="J26" s="22">
-        <f t="shared" si="5"/>
-        <v>0.26000000000000023</v>
+        <v>3.74</v>
       </c>
       <c r="K26" s="22">
-        <f t="shared" si="5"/>
-        <v>0.33999999999999986</v>
+        <v>-15.59</v>
       </c>
       <c r="L26" s="22">
-        <f t="shared" si="5"/>
-        <v>0.72999999999999954</v>
+        <v>5.89</v>
       </c>
       <c r="M26" s="22">
-        <f t="shared" si="5"/>
-        <v>0.51999999999999957</v>
+        <v>14.95</v>
       </c>
       <c r="N26" s="22"/>
-      <c r="O26" s="27">
-        <f>AVERAGE(E26:M26)</f>
-        <v>0.4200000000000001</v>
-      </c>
+      <c r="O26" s="20"/>
       <c r="P26" s="22"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="21"/>
+      <c r="B27" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
+      <c r="E27" s="22">
+        <f t="shared" ref="E27:M27" si="7">E24-E26</f>
+        <v>-0.20000000000000107</v>
+      </c>
+      <c r="F27" s="22">
+        <f t="shared" si="7"/>
+        <v>0.32999999999999829</v>
+      </c>
+      <c r="G27" s="22">
+        <f t="shared" si="7"/>
+        <v>-0.15000000000000036</v>
+      </c>
+      <c r="H27" s="22">
+        <f t="shared" si="7"/>
+        <v>0.21000000000000085</v>
+      </c>
+      <c r="I27" s="22">
+        <f t="shared" si="7"/>
+        <v>-0.10999999999999943</v>
+      </c>
+      <c r="J27" s="22">
+        <f t="shared" si="7"/>
+        <v>6.999999999999984E-2</v>
+      </c>
+      <c r="K27" s="22">
+        <f t="shared" si="7"/>
+        <v>1.9999999999999574E-2</v>
+      </c>
+      <c r="L27" s="22">
+        <f t="shared" si="7"/>
+        <v>-0.3199999999999994</v>
+      </c>
+      <c r="M27" s="22">
+        <f t="shared" si="7"/>
+        <v>7.0000000000000284E-2</v>
+      </c>
       <c r="N27" s="22"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
+      <c r="P27" s="22">
+        <f>AVERAGE(E27:M27)</f>
+        <v>-8.888888888889045E-3</v>
+      </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="21" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22">
-        <v>13.24</v>
+        <f t="shared" ref="E28:M28" si="8">E25-E24</f>
+        <v>0.63000000000000078</v>
       </c>
       <c r="F28" s="22">
-        <v>21.79</v>
+        <f t="shared" si="8"/>
+        <v>8.0000000000001847E-2</v>
       </c>
       <c r="G28" s="22">
-        <v>-10.51</v>
+        <f t="shared" si="8"/>
+        <v>0.5</v>
       </c>
       <c r="H28" s="22">
-        <v>21.13</v>
+        <f t="shared" si="8"/>
+        <v>0.25999999999999801</v>
       </c>
       <c r="I28" s="22">
-        <v>10.51</v>
+        <f t="shared" si="8"/>
+        <v>0.46000000000000085</v>
       </c>
       <c r="J28" s="22">
-        <v>4.04</v>
+        <f t="shared" si="8"/>
+        <v>0.26000000000000023</v>
       </c>
       <c r="K28" s="22">
-        <v>-15.34</v>
+        <f t="shared" si="8"/>
+        <v>0.33999999999999986</v>
       </c>
       <c r="L28" s="22">
-        <v>5.8</v>
-      </c>
-      <c r="M28" s="22"/>
+        <f t="shared" si="8"/>
+        <v>0.72999999999999954</v>
+      </c>
+      <c r="M28" s="22">
+        <f t="shared" si="8"/>
+        <v>0.51999999999999957</v>
+      </c>
       <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
+      <c r="O28" s="27">
+        <f>AVERAGE(E28:M28)</f>
+        <v>0.4200000000000001</v>
+      </c>
       <c r="P28" s="22"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="18" t="s">
-        <v>46</v>
+      <c r="B29" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22">
-        <f>E28-E24</f>
-        <v>9.9999999999999645E-2</v>
+        <f>Emerging!C14*100</f>
+        <v>0.34617479990304889</v>
       </c>
       <c r="F29" s="22">
-        <f t="shared" ref="F29:L29" si="6">F28-F24</f>
-        <v>0.48999999999999844</v>
+        <f>Emerging!D14*100</f>
+        <v>0.30001958939854423</v>
       </c>
       <c r="G29" s="22">
-        <f t="shared" si="6"/>
-        <v>8.9999999999999858E-2</v>
+        <f>Emerging!E14*100</f>
+        <v>0.31828391782400473</v>
       </c>
       <c r="H29" s="22">
-        <f t="shared" si="6"/>
-        <v>0.51999999999999957</v>
+        <f>Emerging!F14*100</f>
+        <v>0.29729975340543746</v>
       </c>
       <c r="I29" s="22">
-        <f t="shared" si="6"/>
-        <v>0.14000000000000057</v>
+        <f>Emerging!G14*100</f>
+        <v>0.26283609775758904</v>
       </c>
       <c r="J29" s="22">
-        <f t="shared" si="6"/>
-        <v>0.29999999999999982</v>
+        <f>Emerging!H14*100</f>
+        <v>0.24308935853935065</v>
       </c>
       <c r="K29" s="22">
-        <f t="shared" si="6"/>
-        <v>0.25</v>
+        <f>Emerging!I14*100</f>
+        <v>0.22825620657184895</v>
       </c>
       <c r="L29" s="22">
-        <f t="shared" si="6"/>
-        <v>-8.9999999999999858E-2</v>
-      </c>
-      <c r="M29" s="22"/>
+        <f>Emerging!J14*100</f>
+        <v>0.23828182369710016</v>
+      </c>
+      <c r="M29" s="22">
+        <f>Emerging!K14*100</f>
+        <v>0</v>
+      </c>
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
-      <c r="P29" s="22">
-        <f>AVERAGE(E29:L29)</f>
-        <v>0.22499999999999976</v>
-      </c>
+      <c r="P29" s="22"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="18" t="s">
-        <v>45</v>
+      <c r="B30" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22">
-        <f>E23-E28</f>
-        <v>0.33000000000000007</v>
+        <f>E29-E28</f>
+        <v>-0.28382520009695189</v>
       </c>
       <c r="F30" s="22">
-        <f t="shared" ref="F30:L30" si="7">F23-F28</f>
-        <v>-7.9999999999998295E-2</v>
+        <f t="shared" ref="F30:L30" si="9">F29-F28</f>
+        <v>0.22001958939854238</v>
       </c>
       <c r="G30" s="22">
-        <f t="shared" si="7"/>
-        <v>0.25999999999999979</v>
+        <f t="shared" si="9"/>
+        <v>-0.18171608217599527</v>
       </c>
       <c r="H30" s="22">
-        <f t="shared" si="7"/>
-        <v>-5.0000000000000711E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.7299753405439451E-2</v>
       </c>
       <c r="I30" s="22">
-        <f t="shared" si="7"/>
-        <v>0.21000000000000085</v>
+        <f t="shared" si="9"/>
+        <v>-0.19716390224241181</v>
       </c>
       <c r="J30" s="22">
-        <f t="shared" si="7"/>
-        <v>3.0000000000000249E-2</v>
+        <f t="shared" si="9"/>
+        <v>-1.6910641460649578E-2</v>
       </c>
       <c r="K30" s="22">
-        <f t="shared" si="7"/>
-        <v>0.10999999999999943</v>
+        <f t="shared" si="9"/>
+        <v>-0.11174379342815091</v>
       </c>
       <c r="L30" s="22">
-        <f t="shared" si="7"/>
-        <v>0.5</v>
+        <f t="shared" si="9"/>
+        <v>-0.49171817630289938</v>
       </c>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
-      <c r="O30" s="27">
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="26">
         <f>AVERAGE(E30:L30)</f>
-        <v>0.16375000000000017</v>
-      </c>
-      <c r="P30" s="22"/>
+        <v>-0.12821980661288462</v>
+      </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="22">
-        <f>Emerging!C14*100</f>
-        <v>0.34617479990304889</v>
-      </c>
-      <c r="F31" s="22">
-        <f>Emerging!D14*100</f>
-        <v>0.30001958939854423</v>
-      </c>
-      <c r="G31" s="22">
-        <f>Emerging!E14*100</f>
-        <v>0.31828391782400473</v>
-      </c>
-      <c r="H31" s="22">
-        <f>Emerging!F14*100</f>
-        <v>0.29729975340543746</v>
-      </c>
-      <c r="I31" s="22">
-        <f>Emerging!G14*100</f>
-        <v>0.26283609775758904</v>
-      </c>
-      <c r="J31" s="22">
-        <f>Emerging!H14*100</f>
-        <v>0.24308935853935065</v>
-      </c>
-      <c r="K31" s="22">
-        <f>Emerging!I14*100</f>
-        <v>0.22825620657184895</v>
-      </c>
-      <c r="L31" s="22">
-        <f>Emerging!J14*100</f>
-        <v>0.23828182369710016</v>
-      </c>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
       <c r="P31" s="22"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>113</v>
+      <c r="B32" s="21" t="s">
+        <v>59</v>
       </c>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22">
-        <f>E31-E30</f>
-        <v>1.617479990304882E-2</v>
+        <v>13.24</v>
       </c>
       <c r="F32" s="22">
-        <f t="shared" ref="F32:L32" si="8">F31-F30</f>
-        <v>0.38001958939854252</v>
+        <v>21.79</v>
       </c>
       <c r="G32" s="22">
-        <f t="shared" si="8"/>
-        <v>5.8283917824004938E-2</v>
+        <v>-10.51</v>
       </c>
       <c r="H32" s="22">
-        <f t="shared" si="8"/>
-        <v>0.34729975340543817</v>
+        <v>21.13</v>
       </c>
       <c r="I32" s="22">
-        <f t="shared" si="8"/>
-        <v>5.2836097757588185E-2</v>
+        <v>10.51</v>
       </c>
       <c r="J32" s="22">
-        <f t="shared" si="8"/>
-        <v>0.2130893585393504</v>
+        <v>4.04</v>
       </c>
       <c r="K32" s="22">
-        <f t="shared" si="8"/>
-        <v>0.11825620657184951</v>
+        <v>-15.34</v>
       </c>
       <c r="L32" s="22">
-        <f t="shared" si="8"/>
-        <v>-0.26171817630289984</v>
+        <v>5.8</v>
       </c>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
-      <c r="Q32" s="26">
-        <f>AVERAGE(E32:L32)</f>
-        <v>0.11553019338711536</v>
-      </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
+      <c r="B33" s="18" t="s">
+        <v>46</v>
+      </c>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
+      <c r="E33" s="22">
+        <f>E32-E26</f>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="F33" s="22">
+        <f t="shared" ref="F33:L33" si="10">F32-F26</f>
+        <v>0.48999999999999844</v>
+      </c>
+      <c r="G33" s="22">
+        <f t="shared" si="10"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="H33" s="22">
+        <f t="shared" si="10"/>
+        <v>0.51999999999999957</v>
+      </c>
+      <c r="I33" s="22">
+        <f t="shared" si="10"/>
+        <v>0.14000000000000057</v>
+      </c>
+      <c r="J33" s="22">
+        <f t="shared" si="10"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="K33" s="22">
+        <f t="shared" si="10"/>
+        <v>0.25</v>
+      </c>
+      <c r="L33" s="22">
+        <f t="shared" si="10"/>
+        <v>-8.9999999999999858E-2</v>
+      </c>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
+      <c r="P33" s="22">
+        <f>AVERAGE(E33:L33)</f>
+        <v>0.22499999999999976</v>
+      </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="21"/>
+      <c r="B34" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
+      <c r="E34" s="22">
+        <f>E25-E32</f>
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="F34" s="22">
+        <f t="shared" ref="F34:L34" si="11">F25-F32</f>
+        <v>-7.9999999999998295E-2</v>
+      </c>
+      <c r="G34" s="22">
+        <f t="shared" si="11"/>
+        <v>0.25999999999999979</v>
+      </c>
+      <c r="H34" s="22">
+        <f t="shared" si="11"/>
+        <v>-5.0000000000000711E-2</v>
+      </c>
+      <c r="I34" s="22">
+        <f t="shared" si="11"/>
+        <v>0.21000000000000085</v>
+      </c>
+      <c r="J34" s="22">
+        <f t="shared" si="11"/>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="K34" s="22">
+        <f t="shared" si="11"/>
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="L34" s="22">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
+      <c r="O34" s="27">
+        <f>AVERAGE(E34:L34)</f>
+        <v>0.16375000000000017</v>
+      </c>
       <c r="P34" s="22"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="I35">
-        <v>8.14</v>
-      </c>
-      <c r="J35">
-        <v>23.91</v>
-      </c>
-      <c r="K35">
-        <v>-15.2</v>
-      </c>
-      <c r="L35">
-        <v>12.01</v>
-      </c>
-      <c r="M35">
-        <v>14.23</v>
-      </c>
+      <c r="B35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22">
+        <f>Emerging!C14*100</f>
+        <v>0.34617479990304889</v>
+      </c>
+      <c r="F35" s="22">
+        <f>Emerging!D14*100</f>
+        <v>0.30001958939854423</v>
+      </c>
+      <c r="G35" s="22">
+        <f>Emerging!E14*100</f>
+        <v>0.31828391782400473</v>
+      </c>
+      <c r="H35" s="22">
+        <f>Emerging!F14*100</f>
+        <v>0.29729975340543746</v>
+      </c>
+      <c r="I35" s="22">
+        <f>Emerging!G14*100</f>
+        <v>0.26283609775758904</v>
+      </c>
+      <c r="J35" s="22">
+        <f>Emerging!H14*100</f>
+        <v>0.24308935853935065</v>
+      </c>
+      <c r="K35" s="22">
+        <f>Emerging!I14*100</f>
+        <v>0.22825620657184895</v>
+      </c>
+      <c r="L35" s="22">
+        <f>Emerging!J14*100</f>
+        <v>0.23828182369710016</v>
+      </c>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B36" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="I36">
-        <v>8.43</v>
-      </c>
-      <c r="J36">
-        <v>24.35</v>
-      </c>
-      <c r="K36">
-        <v>-15.03</v>
-      </c>
-      <c r="L36">
-        <v>12.39</v>
-      </c>
-      <c r="M36">
-        <v>14.62</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="I37">
-        <v>7.98</v>
-      </c>
-      <c r="J37">
-        <v>23.9</v>
-      </c>
-      <c r="K37">
-        <v>-15.41</v>
-      </c>
-      <c r="L37">
-        <v>11.86</v>
-      </c>
-      <c r="M37">
-        <v>14.11</v>
-      </c>
+      <c r="B36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22">
+        <f>E35-E34</f>
+        <v>1.617479990304882E-2</v>
+      </c>
+      <c r="F36" s="22">
+        <f t="shared" ref="F36:L36" si="12">F35-F34</f>
+        <v>0.38001958939854252</v>
+      </c>
+      <c r="G36" s="22">
+        <f t="shared" si="12"/>
+        <v>5.8283917824004938E-2</v>
+      </c>
+      <c r="H36" s="22">
+        <f t="shared" si="12"/>
+        <v>0.34729975340543817</v>
+      </c>
+      <c r="I36" s="22">
+        <f t="shared" si="12"/>
+        <v>5.2836097757588185E-2</v>
+      </c>
+      <c r="J36" s="22">
+        <f t="shared" si="12"/>
+        <v>0.2130893585393504</v>
+      </c>
+      <c r="K36" s="22">
+        <f t="shared" si="12"/>
+        <v>0.11825620657184951</v>
+      </c>
+      <c r="L36" s="22">
+        <f t="shared" si="12"/>
+        <v>-0.26171817630289984</v>
+      </c>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="26">
+        <f>AVERAGE(E36:L36)</f>
+        <v>0.11553019338711536</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B38" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I38">
-        <f>I35-I37</f>
-        <v>0.16000000000000014</v>
-      </c>
-      <c r="J38">
-        <f>J35-J37</f>
-        <v>1.0000000000001563E-2</v>
-      </c>
-      <c r="K38">
-        <f t="shared" ref="K38:M38" si="9">K35-K37</f>
-        <v>0.21000000000000085</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="9"/>
-        <v>0.15000000000000036</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="9"/>
-        <v>0.12000000000000099</v>
-      </c>
-      <c r="P38" s="26">
-        <f>AVERAGE(I38:M38)</f>
-        <v>0.13000000000000078</v>
-      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="I39">
+        <v>8.14</v>
+      </c>
+      <c r="J39">
+        <v>23.91</v>
+      </c>
+      <c r="K39">
+        <v>-15.2</v>
+      </c>
+      <c r="L39">
+        <v>12.01</v>
+      </c>
+      <c r="M39">
+        <v>14.23</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B40" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="I40">
+        <v>8.43</v>
+      </c>
+      <c r="J40">
+        <v>24.35</v>
+      </c>
+      <c r="K40">
+        <v>-15.03</v>
+      </c>
+      <c r="L40">
+        <v>12.39</v>
+      </c>
+      <c r="M40">
+        <v>14.62</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41">
+        <v>7.98</v>
+      </c>
+      <c r="J41">
+        <v>23.9</v>
+      </c>
+      <c r="K41">
+        <v>-15.41</v>
+      </c>
+      <c r="L41">
+        <v>11.86</v>
+      </c>
+      <c r="M41">
+        <v>14.11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B42" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42">
+        <f>I39-I41</f>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="J42">
+        <f>J39-J41</f>
+        <v>1.0000000000001563E-2</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ref="K42:M42" si="13">K39-K41</f>
+        <v>0.21000000000000085</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="13"/>
+        <v>0.15000000000000036</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="13"/>
+        <v>0.12000000000000099</v>
+      </c>
+      <c r="P42" s="26">
+        <f>AVERAGE(I42:M42)</f>
+        <v>0.13000000000000078</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B43" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="I39">
-        <f>I36-I35</f>
+      <c r="I43">
+        <f>I40-I39</f>
         <v>0.28999999999999915</v>
       </c>
-      <c r="J39">
-        <f>J36-J35</f>
+      <c r="J43">
+        <f>J40-J39</f>
         <v>0.44000000000000128</v>
       </c>
-      <c r="K39">
-        <f t="shared" ref="K39:M39" si="10">K36-K35</f>
+      <c r="K43">
+        <f t="shared" ref="K43:M43" si="14">K40-K39</f>
         <v>0.16999999999999993</v>
       </c>
-      <c r="L39">
-        <f t="shared" si="10"/>
+      <c r="L43">
+        <f t="shared" si="14"/>
         <v>0.38000000000000078</v>
       </c>
-      <c r="M39">
-        <f t="shared" si="10"/>
+      <c r="M43">
+        <f t="shared" si="14"/>
         <v>0.38999999999999879</v>
       </c>
-      <c r="O39" s="29">
-        <f>AVERAGE(I39:M39)</f>
+      <c r="O43" s="29">
+        <f>AVERAGE(I43:M43)</f>
         <v>0.33399999999999996</v>
-      </c>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="I41">
-        <v>8.31</v>
-      </c>
-      <c r="J41">
-        <v>24.11</v>
-      </c>
-      <c r="K41">
-        <v>-15.04</v>
-      </c>
-      <c r="L41">
-        <v>12.19</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B42" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I42">
-        <f>I41-I37</f>
-        <v>0.33000000000000007</v>
-      </c>
-      <c r="J42">
-        <f t="shared" ref="J42:M42" si="11">J41-J37</f>
-        <v>0.21000000000000085</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="11"/>
-        <v>0.37000000000000099</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="11"/>
-        <v>0.33000000000000007</v>
-      </c>
-      <c r="P42">
-        <f>AVERAGE(I42:L42)</f>
-        <v>0.3100000000000005</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B43" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I43">
-        <f>I36-I41</f>
-        <v>0.11999999999999922</v>
-      </c>
-      <c r="J43">
-        <f t="shared" ref="J43:L43" si="12">J36-J41</f>
-        <v>0.24000000000000199</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="12"/>
-        <v>9.9999999999997868E-3</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="12"/>
-        <v>0.20000000000000107</v>
-      </c>
-      <c r="O43" s="29">
-        <f>AVERAGE(I43:L43)</f>
-        <v>0.14250000000000052</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I44" s="26">
         <f>SmallCaps!F16*100</f>
@@ -7091,340 +7494,448 @@
         <f>SmallCaps!I16*100</f>
         <v>0.19094311298736055</v>
       </c>
+      <c r="M44" s="26">
+        <f>SmallCaps!J16*100</f>
+        <v>0.15675866560344329</v>
+      </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I45" s="22">
-        <f t="shared" ref="I45" si="13">I44-I43</f>
+      <c r="I45" s="26">
+        <f>I44-I43</f>
+        <v>-0.2095189210017348</v>
+      </c>
+      <c r="J45" s="26">
+        <f t="shared" ref="J45:M45" si="15">J44-J43</f>
+        <v>-0.24747850348188477</v>
+      </c>
+      <c r="K45" s="26">
+        <f t="shared" si="15"/>
+        <v>1.8509188108267655E-2</v>
+      </c>
+      <c r="L45" s="26">
+        <f t="shared" si="15"/>
+        <v>-0.18905688701264023</v>
+      </c>
+      <c r="M45" s="26">
+        <f t="shared" si="15"/>
+        <v>-0.23324133439655551</v>
+      </c>
+      <c r="Q45" s="26">
+        <f>AVERAGE(I45:M45)</f>
+        <v>-0.17215729155690954</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I47">
+        <v>8.31</v>
+      </c>
+      <c r="J47">
+        <v>24.11</v>
+      </c>
+      <c r="K47">
+        <v>-15.04</v>
+      </c>
+      <c r="L47">
+        <v>12.19</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48">
+        <f>I47-I41</f>
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ref="J48:L48" si="16">J47-J41</f>
+        <v>0.21000000000000085</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="16"/>
+        <v>0.37000000000000099</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="16"/>
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="P48">
+        <f>AVERAGE(I48:L48)</f>
+        <v>0.3100000000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B49" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I49">
+        <f>I40-I47</f>
+        <v>0.11999999999999922</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ref="J49:L49" si="17">J40-J47</f>
+        <v>0.24000000000000199</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="17"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="17"/>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="O49" s="29">
+        <f>AVERAGE(I49:L49)</f>
+        <v>0.14250000000000052</v>
+      </c>
+    </row>
+    <row r="50" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I50" s="26">
+        <f>SmallCaps!F16*100</f>
+        <v>8.0481078998264344E-2</v>
+      </c>
+      <c r="J50" s="26">
+        <f>SmallCaps!G16*100</f>
+        <v>0.19252149651811651</v>
+      </c>
+      <c r="K50" s="26">
+        <f>SmallCaps!H16*100</f>
+        <v>0.18850918810826758</v>
+      </c>
+      <c r="L50" s="26">
+        <f>SmallCaps!I16*100</f>
+        <v>0.19094311298736055</v>
+      </c>
+    </row>
+    <row r="51" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I51" s="22">
+        <f t="shared" ref="I51" si="18">I50-I49</f>
         <v>-3.9518921001734875E-2</v>
       </c>
-      <c r="J45" s="22">
-        <f t="shared" ref="J45" si="14">J44-J43</f>
+      <c r="J51" s="22">
+        <f t="shared" ref="J51" si="19">J50-J49</f>
         <v>-4.7478503481885481E-2</v>
       </c>
-      <c r="K45" s="22">
-        <f t="shared" ref="K45" si="15">K44-K43</f>
+      <c r="K51" s="22">
+        <f t="shared" ref="K51" si="20">K50-K49</f>
         <v>0.1785091881082678</v>
       </c>
-      <c r="L45" s="22">
-        <f t="shared" ref="L45" si="16">L44-L43</f>
+      <c r="L51" s="22">
+        <f t="shared" ref="L51" si="21">L50-L49</f>
         <v>-9.0568870126405132E-3</v>
       </c>
-      <c r="Q45" s="26">
-        <f>AVERAGE(I45:L45)</f>
+      <c r="Q51" s="26">
+        <f>AVERAGE(I51:L51)</f>
         <v>2.0613719153001732E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="21" t="s">
+    <row r="54" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B54" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E48">
+      <c r="E54">
         <v>14.75</v>
       </c>
-      <c r="F48">
+      <c r="F54">
         <v>7.07</v>
       </c>
-      <c r="G48">
+      <c r="G54">
         <v>0.35</v>
       </c>
-      <c r="H48">
+      <c r="H54">
         <v>34.049999999999997</v>
       </c>
     </row>
-    <row r="49" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B49" s="21" t="s">
+    <row r="55" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B55" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E49">
+      <c r="E55">
         <v>14.47</v>
       </c>
-      <c r="F49">
+      <c r="F55">
         <v>6.77</v>
       </c>
-      <c r="G49">
+      <c r="G55">
         <v>0.02</v>
       </c>
-      <c r="H49">
+      <c r="H55">
         <v>33.590000000000003</v>
-      </c>
-    </row>
-    <row r="50" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B50" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50">
-        <v>15.19</v>
-      </c>
-      <c r="F50">
-        <v>7.39</v>
-      </c>
-      <c r="G50">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H50">
-        <v>34.369999999999997</v>
-      </c>
-    </row>
-    <row r="51" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B51" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E51">
-        <f>E50-E49</f>
-        <v>0.71999999999999886</v>
-      </c>
-      <c r="F51">
-        <f t="shared" ref="F51:H51" si="17">F50-F49</f>
-        <v>0.62000000000000011</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="17"/>
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="17"/>
-        <v>0.77999999999999403</v>
-      </c>
-      <c r="N51">
-        <f>AVERAGE(E51:H51)</f>
-        <v>0.66999999999999826</v>
-      </c>
-    </row>
-    <row r="52" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B52" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52">
-        <f>E48-E49</f>
-        <v>0.27999999999999936</v>
-      </c>
-      <c r="F52">
-        <f t="shared" ref="F52:H52" si="18">F48-F49</f>
-        <v>0.30000000000000071</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="18"/>
-        <v>0.32999999999999996</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="18"/>
-        <v>0.45999999999999375</v>
-      </c>
-      <c r="P52" s="26">
-        <f>AVERAGE(E52:H52)</f>
-        <v>0.34249999999999847</v>
-      </c>
-    </row>
-    <row r="53" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B53" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53">
-        <f>E50-E48</f>
-        <v>0.4399999999999995</v>
-      </c>
-      <c r="F53">
-        <f t="shared" ref="F53:H53" si="19">F50-F48</f>
-        <v>0.3199999999999994</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="19"/>
-        <v>0.22999999999999998</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="19"/>
-        <v>0.32000000000000028</v>
-      </c>
-      <c r="O53" s="28">
-        <f>AVERAGE(E53:H53)</f>
-        <v>0.32749999999999979</v>
       </c>
     </row>
     <row r="56" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E56">
-        <v>1.81</v>
+        <v>15.19</v>
       </c>
       <c r="F56">
-        <v>10.79</v>
+        <v>7.39</v>
       </c>
       <c r="G56">
-        <v>-10.47</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H56">
-        <v>26.76</v>
+        <v>34.369999999999997</v>
       </c>
     </row>
     <row r="57" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B57" s="21" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E57">
-        <v>1.24</v>
+        <f>E56-E55</f>
+        <v>0.71999999999999886</v>
       </c>
       <c r="F57">
-        <v>10.3</v>
+        <f t="shared" ref="F57:H57" si="22">F56-F55</f>
+        <v>0.62000000000000011</v>
       </c>
       <c r="G57">
-        <v>-10.89</v>
+        <f t="shared" si="22"/>
+        <v>0.55999999999999994</v>
       </c>
       <c r="H57">
-        <v>26.14</v>
-      </c>
-      <c r="AB57" s="26"/>
-      <c r="AC57" s="26"/>
-      <c r="AD57" s="26"/>
-      <c r="AE57" s="26"/>
-      <c r="AF57" s="26"/>
-      <c r="AG57" s="26"/>
-      <c r="AH57" s="26"/>
-      <c r="AI57" s="26"/>
+        <f t="shared" si="22"/>
+        <v>0.77999999999999403</v>
+      </c>
+      <c r="N57">
+        <f>AVERAGE(E57:H57)</f>
+        <v>0.66999999999999826</v>
+      </c>
     </row>
     <row r="58" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B58" s="21" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E58">
-        <v>1.9</v>
+        <f>E54-E55</f>
+        <v>0.27999999999999936</v>
       </c>
       <c r="F58">
-        <v>10.96</v>
+        <f t="shared" ref="F58:H58" si="23">F54-F55</f>
+        <v>0.30000000000000071</v>
       </c>
       <c r="G58">
-        <v>-10.3</v>
+        <f t="shared" si="23"/>
+        <v>0.32999999999999996</v>
       </c>
       <c r="H58">
-        <v>26.99</v>
+        <f t="shared" si="23"/>
+        <v>0.45999999999999375</v>
+      </c>
+      <c r="P58" s="26">
+        <f>AVERAGE(E58:H58)</f>
+        <v>0.34249999999999847</v>
       </c>
     </row>
     <row r="59" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B59" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59">
+        <f>E56-E54</f>
+        <v>0.4399999999999995</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ref="F59:H59" si="24">F56-F54</f>
+        <v>0.3199999999999994</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="24"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="24"/>
+        <v>0.32000000000000028</v>
+      </c>
+      <c r="O59" s="28">
+        <f>AVERAGE(E59:H59)</f>
+        <v>0.32749999999999979</v>
+      </c>
+    </row>
+    <row r="62" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B62" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62">
+        <v>1.81</v>
+      </c>
+      <c r="F62">
+        <v>10.79</v>
+      </c>
+      <c r="G62">
+        <v>-10.47</v>
+      </c>
+      <c r="H62">
+        <v>26.76</v>
+      </c>
+    </row>
+    <row r="63" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B63" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63">
+        <v>1.24</v>
+      </c>
+      <c r="F63">
+        <v>10.3</v>
+      </c>
+      <c r="G63">
+        <v>-10.89</v>
+      </c>
+      <c r="H63">
+        <v>26.14</v>
+      </c>
+      <c r="AB63" s="26"/>
+      <c r="AC63" s="26"/>
+      <c r="AD63" s="26"/>
+      <c r="AE63" s="26"/>
+      <c r="AF63" s="26"/>
+      <c r="AG63" s="26"/>
+      <c r="AH63" s="26"/>
+      <c r="AI63" s="26"/>
+    </row>
+    <row r="64" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B64" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E64">
+        <v>1.9</v>
+      </c>
+      <c r="F64">
+        <v>10.96</v>
+      </c>
+      <c r="G64">
+        <v>-10.3</v>
+      </c>
+      <c r="H64">
+        <v>26.99</v>
+      </c>
+    </row>
+    <row r="65" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B65" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E59">
-        <f>E58-E57</f>
+      <c r="E65">
+        <f>E64-E63</f>
         <v>0.65999999999999992</v>
       </c>
-      <c r="F59">
-        <f t="shared" ref="F59:H59" si="20">F58-F57</f>
+      <c r="F65">
+        <f t="shared" ref="F65:H65" si="25">F64-F63</f>
         <v>0.66000000000000014</v>
       </c>
-      <c r="G59">
-        <f t="shared" si="20"/>
+      <c r="G65">
+        <f t="shared" si="25"/>
         <v>0.58999999999999986</v>
       </c>
-      <c r="H59">
-        <f t="shared" si="20"/>
+      <c r="H65">
+        <f t="shared" si="25"/>
         <v>0.84999999999999787</v>
       </c>
-      <c r="N59">
-        <f>AVERAGE(E59:H59)</f>
+      <c r="N65">
+        <f>AVERAGE(E65:H65)</f>
         <v>0.6899999999999995</v>
       </c>
     </row>
-    <row r="60" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B60" s="21" t="s">
+    <row r="66" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B66" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E60">
-        <f>E56-E57</f>
+      <c r="E66">
+        <f>E62-E63</f>
         <v>0.57000000000000006</v>
       </c>
-      <c r="F60">
-        <f t="shared" ref="F60:H60" si="21">F56-F57</f>
+      <c r="F66">
+        <f t="shared" ref="F66:H66" si="26">F62-F63</f>
         <v>0.48999999999999844</v>
       </c>
-      <c r="G60">
-        <f t="shared" si="21"/>
+      <c r="G66">
+        <f t="shared" si="26"/>
         <v>0.41999999999999993</v>
       </c>
-      <c r="H60">
-        <f t="shared" si="21"/>
+      <c r="H66">
+        <f t="shared" si="26"/>
         <v>0.62000000000000099</v>
       </c>
-      <c r="P60" s="26">
-        <f>AVERAGE(E60:H60)</f>
+      <c r="P66" s="26">
+        <f>AVERAGE(E66:H66)</f>
         <v>0.52499999999999991</v>
       </c>
-      <c r="AB60" s="37"/>
-      <c r="AC60" s="37"/>
-      <c r="AD60" s="37"/>
-      <c r="AE60" s="37"/>
-      <c r="AF60" s="37"/>
-      <c r="AG60" s="37"/>
-      <c r="AH60" s="37"/>
-      <c r="AI60" s="37"/>
-    </row>
-    <row r="61" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B61" s="21" t="s">
+      <c r="AB66" s="37"/>
+      <c r="AC66" s="37"/>
+      <c r="AD66" s="37"/>
+      <c r="AE66" s="37"/>
+      <c r="AF66" s="37"/>
+      <c r="AG66" s="37"/>
+      <c r="AH66" s="37"/>
+      <c r="AI66" s="37"/>
+    </row>
+    <row r="67" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B67" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E61">
-        <f>E58-E56</f>
+      <c r="E67">
+        <f>E64-E62</f>
         <v>8.9999999999999858E-2</v>
       </c>
-      <c r="F61">
-        <f t="shared" ref="F61:H61" si="22">F58-F56</f>
+      <c r="F67">
+        <f t="shared" ref="F67:H67" si="27">F64-F62</f>
         <v>0.17000000000000171</v>
       </c>
-      <c r="G61">
-        <f t="shared" si="22"/>
+      <c r="G67">
+        <f t="shared" si="27"/>
         <v>0.16999999999999993</v>
       </c>
-      <c r="H61">
-        <f t="shared" si="22"/>
+      <c r="H67">
+        <f t="shared" si="27"/>
         <v>0.22999999999999687</v>
       </c>
-      <c r="O61" s="28">
-        <f>AVERAGE(E61:H61)</f>
+      <c r="O67" s="28">
+        <f>AVERAGE(E67:H67)</f>
         <v>0.16499999999999959</v>
       </c>
-      <c r="AB61" s="26"/>
-      <c r="AC61" s="26"/>
-      <c r="AD61" s="26"/>
-      <c r="AE61" s="26"/>
-      <c r="AF61" s="26"/>
-      <c r="AG61" s="26"/>
-      <c r="AH61" s="26"/>
-      <c r="AI61" s="26"/>
-    </row>
-    <row r="62" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="AB62" s="26"/>
-      <c r="AC62" s="26"/>
-      <c r="AD62" s="26"/>
-      <c r="AE62" s="26"/>
-      <c r="AF62" s="26"/>
-      <c r="AG62" s="26"/>
-      <c r="AH62" s="26"/>
-      <c r="AI62" s="26"/>
-    </row>
-    <row r="64" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="1"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="1"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="AB67" s="26"/>
+      <c r="AC67" s="26"/>
+      <c r="AD67" s="26"/>
+      <c r="AE67" s="26"/>
+      <c r="AF67" s="26"/>
+      <c r="AG67" s="26"/>
+      <c r="AH67" s="26"/>
+      <c r="AI67" s="26"/>
+    </row>
+    <row r="68" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AB68" s="26"/>
+      <c r="AC68" s="26"/>
+      <c r="AD68" s="26"/>
+      <c r="AE68" s="26"/>
+      <c r="AF68" s="26"/>
+      <c r="AG68" s="26"/>
+      <c r="AH68" s="26"/>
+      <c r="AI68" s="26"/>
+    </row>
+    <row r="70" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -7432,23 +7943,20 @@
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -7456,43 +7964,71 @@
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="1"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-    </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
-    </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
-      <c r="Q84" s="26"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B90" s="1"/>
+      <c r="Q90" s="26"/>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B91" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E7:M8">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="E21:L21">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:L22">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7503,8 +8039,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19:L19">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="E36:L36">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7516,7 +8052,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:M9">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7527,43 +8063,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:L20">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30:L30">
+  <conditionalFormatting sqref="I51:L51">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:L43">
+  <conditionalFormatting sqref="I15:M15">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32:L32">
+  <conditionalFormatting sqref="E30:L30">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -7575,7 +8099,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:L45">
+  <conditionalFormatting sqref="I45:M45">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/NorthernTrust/NT-KostenBepaling.xlsx
+++ b/NorthernTrust/NT-KostenBepaling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/NorthernTrust/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1708" documentId="13_ncr:1_{0BEEB54A-A1B5-4808-9253-8C962E6DCC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F08DB18A-CC9B-43D5-8293-1F71651A8E6A}"/>
+  <xr:revisionPtr revIDLastSave="1756" documentId="13_ncr:1_{0BEEB54A-A1B5-4808-9253-8C962E6DCC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E270FC32-E042-4A27-BA58-6741BA5EE756}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aannames" sheetId="4" r:id="rId1"/>
@@ -1041,7 +1041,7 @@
     <t>A class</t>
   </si>
   <si>
-    <t>Cost range: 0,225% - 0,447%</t>
+    <t>Cost range: 0,293% - 0,447%</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926ECACD-21DA-4904-B85E-A64A90D22818}">
   <dimension ref="B2:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1637,9 +1637,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O54"/>
+  <dimension ref="B2:O56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G51" activeCellId="1" sqref="G41 G51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2568,6 +2570,11 @@
         <f>C37+C38-('Tracking Difference'!Q9/100)</f>
         <v>2.6400672510831589E-3</v>
       </c>
+      <c r="G41" s="3">
+        <f>E41-C41</f>
+        <v>8.0608069627042134E-4</v>
+      </c>
+      <c r="H41" s="6"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E42" s="4"/>
@@ -2687,6 +2694,11 @@
         <f>C47+C48-('Tracking Difference'!Q15/100)</f>
         <v>2.638439556594525E-3</v>
       </c>
+      <c r="G51" s="6">
+        <f>E51-C51</f>
+        <v>1.3044530017817875E-3</v>
+      </c>
+      <c r="H51" s="6"/>
       <c r="L51" s="4"/>
       <c r="M51" s="5"/>
     </row>
@@ -2727,6 +2739,9 @@
       <c r="L54" s="4"/>
       <c r="M54" s="5"/>
     </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C56" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2736,9 +2751,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5B4C98-CE28-4015-A5EF-F840D4E9DB1C}">
-  <dimension ref="B2:O49"/>
+  <dimension ref="B2:O52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3457,8 +3474,8 @@
       </c>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
       <c r="J37" s="32"/>
       <c r="K37" s="32"/>
     </row>
@@ -3573,8 +3590,8 @@
       </c>
       <c r="F47" s="32"/>
       <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
       <c r="J47" s="32"/>
       <c r="K47" s="32"/>
     </row>
@@ -3592,6 +3609,9 @@
         <v>143</v>
       </c>
       <c r="E49" s="4"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C52" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3602,9 +3622,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9123B064-D487-424B-955E-970CD2CDF897}">
-  <dimension ref="B2:O43"/>
+  <dimension ref="B2:O44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4220,6 +4242,10 @@
         <f>C35+C36-('Tracking Difference'!Q45/100)</f>
         <v>4.4724913196528548E-3</v>
       </c>
+      <c r="F39" s="5">
+        <f>D39-C39</f>
+        <v>1.5378229155690957E-3</v>
+      </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E40" s="4"/>
@@ -4235,6 +4261,11 @@
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="36"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="6"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8036,6 +8067,18 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:L30">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -8087,18 +8130,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:L30">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I45:M45">
     <cfRule type="colorScale" priority="1">
       <colorScale>
